--- a/SWE/Software Specification/SRS/SRS review.xlsx
+++ b/SWE/Software Specification/SRS/SRS review.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Sovy\Sovy---Digital-Calculator-PO1_DGC\SWE\Software Specification\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Sovy - Digital Calculator PO1_DGC</t>
   </si>
@@ -71,11 +71,29 @@
   <si>
     <t>Reference Document</t>
   </si>
+  <si>
+    <t>Requirement not Atomic</t>
+  </si>
+  <si>
+    <t>Requirement 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation modes not listed </t>
+  </si>
+  <si>
+    <t>Output should be result signal</t>
+  </si>
+  <si>
+    <t>Requirement 9,10</t>
+  </si>
+  <si>
+    <t>Requirements 3,4,5,6,11,12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m&quot;/&quot;d"/>
   </numFmts>
@@ -172,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -202,6 +220,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -430,13 +449,13 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="37.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
     <col min="9" max="9" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -445,13 +464,13 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -475,13 +494,13 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -500,7 +519,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="13.8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
@@ -538,7 +557,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="13.2">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -576,13 +595,21 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="13.2">
       <c r="A5" s="1"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="15"/>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="16">
+        <v>44269</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H5" s="15"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -603,13 +630,21 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="13.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="16">
+        <v>44269</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="10"/>
@@ -631,22 +666,30 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="15.6" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="16">
+        <v>44269</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -659,22 +702,22 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+    <row r="8" spans="1:26" ht="13.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -687,22 +730,22 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+    <row r="9" spans="1:26" ht="13.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -715,7 +758,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="13.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -743,7 +786,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="13.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -771,7 +814,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="13.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -799,7 +842,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="13.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -827,7 +870,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="13.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -855,7 +898,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="13.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -866,7 +909,6 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -883,7 +925,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="13.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -911,7 +953,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="13.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -939,7 +981,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="13.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -967,7 +1009,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="13.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -995,7 +1037,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="13.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1023,7 +1065,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="13.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1051,7 +1093,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="13.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1079,7 +1121,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="13.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1107,7 +1149,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="13.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1135,7 +1177,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="13.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1163,7 +1205,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="13.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1191,7 +1233,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="13.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1219,7 +1261,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="13.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1247,7 +1289,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="13.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1275,7 +1317,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="13.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1303,7 +1345,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="13.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1331,7 +1373,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="13.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1359,7 +1401,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="13.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1387,7 +1429,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="13.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1415,7 +1457,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="13.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1443,7 +1485,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" ht="13.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1471,7 +1513,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="13.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1499,7 +1541,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="13.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1527,7 +1569,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="13.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1555,7 +1597,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" ht="13.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1583,7 +1625,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" ht="13.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1611,7 +1653,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" ht="13.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1639,7 +1681,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" ht="13.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1667,7 +1709,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" ht="13.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1695,7 +1737,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" ht="13.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1723,7 +1765,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" ht="13.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1751,7 +1793,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" ht="13.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1779,7 +1821,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" ht="13.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1807,7 +1849,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" ht="13.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1835,7 +1877,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" ht="13.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1863,7 +1905,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" ht="13.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1891,7 +1933,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" ht="13.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1919,7 +1961,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" ht="13.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1947,7 +1989,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" ht="13.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1975,7 +2017,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" ht="13.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2003,7 +2045,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" ht="13.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2031,7 +2073,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" ht="13.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2059,7 +2101,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" ht="13.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2087,7 +2129,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" ht="13.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2115,7 +2157,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" ht="13.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2143,7 +2185,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" ht="13.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2171,7 +2213,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" ht="13.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2199,7 +2241,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" ht="13.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2227,7 +2269,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" ht="13.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2255,7 +2297,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="13.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2283,7 +2325,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="13.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2311,7 +2353,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" ht="13.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2339,7 +2381,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="13.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2367,7 +2409,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="13.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2395,7 +2437,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="13.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2423,7 +2465,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="13.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2451,7 +2493,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="13.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2479,7 +2521,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="13.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2507,7 +2549,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="13.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2535,7 +2577,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" ht="13.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2563,7 +2605,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" ht="13.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2591,7 +2633,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" ht="13.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2619,7 +2661,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" ht="13.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2647,7 +2689,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="13.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2675,7 +2717,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" ht="13.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2703,7 +2745,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" ht="13.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2731,7 +2773,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" ht="13.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2759,7 +2801,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" ht="13.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2787,7 +2829,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" ht="13.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2815,7 +2857,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" ht="13.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2843,7 +2885,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" ht="13.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2871,7 +2913,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" ht="13.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2899,7 +2941,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" ht="13.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2927,7 +2969,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" ht="13.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2955,7 +2997,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" ht="13.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2983,7 +3025,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" ht="13.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3011,7 +3053,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" ht="13.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3039,7 +3081,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" ht="13.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3067,7 +3109,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" ht="13.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3095,7 +3137,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" ht="13.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3123,7 +3165,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" ht="13.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3151,7 +3193,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" ht="13.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3179,7 +3221,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" ht="13.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3207,7 +3249,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" ht="13.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3235,7 +3277,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" ht="13.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3263,7 +3305,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" ht="13.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3291,7 +3333,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" ht="13.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3319,7 +3361,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" ht="13.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3347,7 +3389,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" ht="13.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3375,7 +3417,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" ht="13.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3403,7 +3445,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" ht="13.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3431,7 +3473,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" ht="13.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3459,7 +3501,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" ht="13.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3487,7 +3529,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" ht="13.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3515,7 +3557,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" ht="13.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3543,7 +3585,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" ht="13.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3571,7 +3613,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" ht="13.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3599,7 +3641,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" ht="13.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3627,7 +3669,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" ht="13.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3655,7 +3697,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" ht="13.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3683,7 +3725,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" ht="13.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3711,7 +3753,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" ht="13.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3739,7 +3781,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" ht="13.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3767,7 +3809,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" ht="13.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3795,7 +3837,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" ht="13.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3823,7 +3865,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" ht="13.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3851,7 +3893,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" ht="13.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3879,7 +3921,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" ht="13.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3907,7 +3949,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" ht="13.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3935,7 +3977,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" ht="13.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3963,7 +4005,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" ht="13.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3991,7 +4033,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" ht="13.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4019,7 +4061,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" ht="13.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4047,7 +4089,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" ht="13.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4075,7 +4117,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" ht="13.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4103,7 +4145,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" ht="13.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4131,7 +4173,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" ht="13.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4159,7 +4201,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" ht="13.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4187,7 +4229,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" ht="13.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4215,7 +4257,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" ht="13.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4243,7 +4285,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" ht="13.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4271,7 +4313,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" ht="13.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4299,7 +4341,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" ht="13.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4327,7 +4369,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" ht="13.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4355,7 +4397,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" ht="13.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4383,7 +4425,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" ht="13.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4411,7 +4453,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" ht="13.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4439,7 +4481,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" ht="13.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4467,7 +4509,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" ht="13.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4495,7 +4537,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" ht="13.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4523,7 +4565,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" ht="13.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4551,7 +4593,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" ht="13.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4579,7 +4621,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" ht="13.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4607,7 +4649,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" ht="13.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4635,7 +4677,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" ht="13.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4663,7 +4705,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" ht="13.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4691,7 +4733,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" ht="13.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4719,7 +4761,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" ht="13.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4747,7 +4789,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" ht="13.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4775,7 +4817,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" ht="13.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4803,7 +4845,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" ht="13.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -4831,7 +4873,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" ht="13.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4859,7 +4901,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" ht="13.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4887,7 +4929,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" ht="13.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4915,7 +4957,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" ht="13.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4943,7 +4985,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" ht="13.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4971,7 +5013,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" ht="13.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -4999,7 +5041,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" ht="13.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5027,7 +5069,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" ht="13.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5055,7 +5097,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" ht="13.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5083,7 +5125,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" ht="13.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5111,7 +5153,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" ht="13.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5139,7 +5181,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" ht="13.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5167,7 +5209,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" ht="13.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5195,7 +5237,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" ht="13.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5223,7 +5265,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" ht="13.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5251,7 +5293,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" ht="13.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5279,7 +5321,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" ht="13.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5307,7 +5349,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" ht="13.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5335,7 +5377,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" ht="13.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5363,7 +5405,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" ht="13.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5391,7 +5433,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" ht="13.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5419,7 +5461,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" ht="13.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5447,7 +5489,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" ht="13.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5475,7 +5517,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" ht="13.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5503,7 +5545,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" ht="13.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5531,7 +5573,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" ht="13.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5559,7 +5601,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" ht="13.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5587,7 +5629,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" ht="13.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5615,7 +5657,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" ht="13.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5643,7 +5685,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" ht="13.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5671,7 +5713,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" ht="13.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5699,7 +5741,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" ht="13.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5727,7 +5769,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" ht="13.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5755,7 +5797,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" ht="13.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5783,7 +5825,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" ht="13.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -5811,7 +5853,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" ht="13.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -5839,7 +5881,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" ht="13.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -5867,7 +5909,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" ht="13.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -5895,7 +5937,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" ht="13.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -5923,7 +5965,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" ht="13.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -5951,7 +5993,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" ht="13.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -5979,7 +6021,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" ht="13.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6007,7 +6049,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" ht="13.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6035,7 +6077,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" ht="13.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6063,7 +6105,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" spans="1:26">
+    <row r="201" spans="1:26" ht="13.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6091,7 +6133,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" spans="1:26">
+    <row r="202" spans="1:26" ht="13.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6119,7 +6161,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" spans="1:26">
+    <row r="203" spans="1:26" ht="13.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6147,7 +6189,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" spans="1:26">
+    <row r="204" spans="1:26" ht="13.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6175,7 +6217,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" spans="1:26">
+    <row r="205" spans="1:26" ht="13.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6203,7 +6245,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" spans="1:26">
+    <row r="206" spans="1:26" ht="13.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6231,7 +6273,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" spans="1:26">
+    <row r="207" spans="1:26" ht="13.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6259,7 +6301,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" spans="1:26">
+    <row r="208" spans="1:26" ht="13.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6287,7 +6329,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" spans="1:26">
+    <row r="209" spans="1:26" ht="13.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6315,7 +6357,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" spans="1:26">
+    <row r="210" spans="1:26" ht="13.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6343,7 +6385,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" spans="1:26">
+    <row r="211" spans="1:26" ht="13.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6371,7 +6413,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" spans="1:26">
+    <row r="212" spans="1:26" ht="13.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6399,7 +6441,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" spans="1:26">
+    <row r="213" spans="1:26" ht="13.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6427,7 +6469,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" spans="1:26">
+    <row r="214" spans="1:26" ht="13.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6455,7 +6497,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" spans="1:26">
+    <row r="215" spans="1:26" ht="13.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6483,7 +6525,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" spans="1:26">
+    <row r="216" spans="1:26" ht="13.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6511,7 +6553,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" spans="1:26">
+    <row r="217" spans="1:26" ht="13.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6539,7 +6581,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" spans="1:26">
+    <row r="218" spans="1:26" ht="13.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6567,7 +6609,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" spans="1:26">
+    <row r="219" spans="1:26" ht="13.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6595,7 +6637,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" spans="1:26">
+    <row r="220" spans="1:26" ht="13.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6623,7 +6665,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" spans="1:26">
+    <row r="221" spans="1:26" ht="13.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6651,7 +6693,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" spans="1:26">
+    <row r="222" spans="1:26" ht="13.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6679,7 +6721,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" spans="1:26">
+    <row r="223" spans="1:26" ht="13.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6707,7 +6749,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" spans="1:26">
+    <row r="224" spans="1:26" ht="13.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -6735,7 +6777,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" spans="1:26">
+    <row r="225" spans="1:26" ht="13.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -6763,7 +6805,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" spans="1:26">
+    <row r="226" spans="1:26" ht="13.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -6791,7 +6833,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" spans="1:26">
+    <row r="227" spans="1:26" ht="13.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -6819,7 +6861,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" spans="1:26">
+    <row r="228" spans="1:26" ht="13.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -6847,7 +6889,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" spans="1:26">
+    <row r="229" spans="1:26" ht="13.2">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -6875,7 +6917,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" spans="1:26">
+    <row r="230" spans="1:26" ht="13.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -6903,7 +6945,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" spans="1:26">
+    <row r="231" spans="1:26" ht="13.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -6931,7 +6973,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" spans="1:26">
+    <row r="232" spans="1:26" ht="13.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -6959,7 +7001,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" spans="1:26">
+    <row r="233" spans="1:26" ht="13.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -6987,7 +7029,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" spans="1:26">
+    <row r="234" spans="1:26" ht="13.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7015,7 +7057,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" spans="1:26">
+    <row r="235" spans="1:26" ht="13.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7043,7 +7085,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" spans="1:26">
+    <row r="236" spans="1:26" ht="13.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7071,7 +7113,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" spans="1:26">
+    <row r="237" spans="1:26" ht="13.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7099,7 +7141,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="1:26">
+    <row r="238" spans="1:26" ht="13.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7127,7 +7169,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" spans="1:26">
+    <row r="239" spans="1:26" ht="13.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7155,7 +7197,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" spans="1:26">
+    <row r="240" spans="1:26" ht="13.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7183,7 +7225,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" spans="1:26">
+    <row r="241" spans="1:26" ht="13.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7211,7 +7253,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" spans="1:26">
+    <row r="242" spans="1:26" ht="13.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7239,7 +7281,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" spans="1:26">
+    <row r="243" spans="1:26" ht="13.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7267,7 +7309,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" spans="1:26">
+    <row r="244" spans="1:26" ht="13.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7295,7 +7337,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="1:26">
+    <row r="245" spans="1:26" ht="13.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7323,7 +7365,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="1:26">
+    <row r="246" spans="1:26" ht="13.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7351,7 +7393,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26">
+    <row r="247" spans="1:26" ht="13.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7379,7 +7421,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="1:26">
+    <row r="248" spans="1:26" ht="13.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7407,7 +7449,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="1:26">
+    <row r="249" spans="1:26" ht="13.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7435,7 +7477,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="1:26">
+    <row r="250" spans="1:26" ht="13.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7463,7 +7505,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26">
+    <row r="251" spans="1:26" ht="13.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7491,7 +7533,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="1:26">
+    <row r="252" spans="1:26" ht="13.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7519,7 +7561,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="1:26">
+    <row r="253" spans="1:26" ht="13.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7547,7 +7589,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="1:26">
+    <row r="254" spans="1:26" ht="13.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7575,7 +7617,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" spans="1:26">
+    <row r="255" spans="1:26" ht="13.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7603,7 +7645,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" spans="1:26">
+    <row r="256" spans="1:26" ht="13.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7631,7 +7673,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" spans="1:26">
+    <row r="257" spans="1:26" ht="13.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7659,7 +7701,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" spans="1:26">
+    <row r="258" spans="1:26" ht="13.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7687,7 +7729,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" spans="1:26">
+    <row r="259" spans="1:26" ht="13.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7715,7 +7757,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" spans="1:26">
+    <row r="260" spans="1:26" ht="13.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7743,7 +7785,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26">
+    <row r="261" spans="1:26" ht="13.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -7771,7 +7813,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26">
+    <row r="262" spans="1:26" ht="13.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -7799,7 +7841,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" spans="1:26">
+    <row r="263" spans="1:26" ht="13.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -7827,7 +7869,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" spans="1:26">
+    <row r="264" spans="1:26" ht="13.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7855,7 +7897,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" spans="1:26">
+    <row r="265" spans="1:26" ht="13.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -7883,7 +7925,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" spans="1:26">
+    <row r="266" spans="1:26" ht="13.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -7911,7 +7953,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" spans="1:26">
+    <row r="267" spans="1:26" ht="13.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -7939,7 +7981,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" spans="1:26">
+    <row r="268" spans="1:26" ht="13.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -7967,7 +8009,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" spans="1:26">
+    <row r="269" spans="1:26" ht="13.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -7995,7 +8037,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" spans="1:26">
+    <row r="270" spans="1:26" ht="13.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -8023,7 +8065,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" spans="1:26">
+    <row r="271" spans="1:26" ht="13.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -8051,7 +8093,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" spans="1:26">
+    <row r="272" spans="1:26" ht="13.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8079,7 +8121,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" spans="1:26">
+    <row r="273" spans="1:26" ht="13.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8107,7 +8149,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" spans="1:26">
+    <row r="274" spans="1:26" ht="13.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8135,7 +8177,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" spans="1:26">
+    <row r="275" spans="1:26" ht="13.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8163,7 +8205,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" spans="1:26">
+    <row r="276" spans="1:26" ht="13.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8191,7 +8233,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" spans="1:26">
+    <row r="277" spans="1:26" ht="13.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8219,7 +8261,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" spans="1:26">
+    <row r="278" spans="1:26" ht="13.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8247,7 +8289,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" spans="1:26">
+    <row r="279" spans="1:26" ht="13.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8275,7 +8317,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" spans="1:26">
+    <row r="280" spans="1:26" ht="13.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8303,7 +8345,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="1:26">
+    <row r="281" spans="1:26" ht="13.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8331,7 +8373,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="1:26">
+    <row r="282" spans="1:26" ht="13.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8359,7 +8401,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="1:26">
+    <row r="283" spans="1:26" ht="13.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8387,7 +8429,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="1:26">
+    <row r="284" spans="1:26" ht="13.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8415,7 +8457,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="1:26">
+    <row r="285" spans="1:26" ht="13.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8443,7 +8485,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="1:26">
+    <row r="286" spans="1:26" ht="13.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8471,7 +8513,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="1:26">
+    <row r="287" spans="1:26" ht="13.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8499,7 +8541,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="1:26">
+    <row r="288" spans="1:26" ht="13.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8527,7 +8569,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" spans="1:26">
+    <row r="289" spans="1:26" ht="13.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8555,7 +8597,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" spans="1:26">
+    <row r="290" spans="1:26" ht="13.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -8583,7 +8625,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26">
+    <row r="291" spans="1:26" ht="13.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -8611,7 +8653,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26">
+    <row r="292" spans="1:26" ht="13.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -8639,7 +8681,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" spans="1:26">
+    <row r="293" spans="1:26" ht="13.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8667,7 +8709,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" spans="1:26">
+    <row r="294" spans="1:26" ht="13.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8695,7 +8737,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" spans="1:26">
+    <row r="295" spans="1:26" ht="13.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -8723,7 +8765,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" spans="1:26">
+    <row r="296" spans="1:26" ht="13.2">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -8751,7 +8793,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" spans="1:26">
+    <row r="297" spans="1:26" ht="13.2">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -8779,7 +8821,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" spans="1:26">
+    <row r="298" spans="1:26" ht="13.2">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -8807,7 +8849,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" spans="1:26">
+    <row r="299" spans="1:26" ht="13.2">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -8835,7 +8877,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" spans="1:26">
+    <row r="300" spans="1:26" ht="13.2">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -8863,7 +8905,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" spans="1:26">
+    <row r="301" spans="1:26" ht="13.2">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -8891,7 +8933,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" spans="1:26">
+    <row r="302" spans="1:26" ht="13.2">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -8919,7 +8961,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" spans="1:26">
+    <row r="303" spans="1:26" ht="13.2">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -8947,7 +8989,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" spans="1:26">
+    <row r="304" spans="1:26" ht="13.2">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -8975,7 +9017,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" spans="1:26">
+    <row r="305" spans="1:26" ht="13.2">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -9003,7 +9045,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" spans="1:26">
+    <row r="306" spans="1:26" ht="13.2">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -9031,7 +9073,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" spans="1:26">
+    <row r="307" spans="1:26" ht="13.2">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -9059,7 +9101,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" spans="1:26">
+    <row r="308" spans="1:26" ht="13.2">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -9087,7 +9129,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" spans="1:26">
+    <row r="309" spans="1:26" ht="13.2">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -9115,7 +9157,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" spans="1:26">
+    <row r="310" spans="1:26" ht="13.2">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -9143,7 +9185,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" spans="1:26">
+    <row r="311" spans="1:26" ht="13.2">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -9171,7 +9213,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" spans="1:26">
+    <row r="312" spans="1:26" ht="13.2">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -9199,7 +9241,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" spans="1:26">
+    <row r="313" spans="1:26" ht="13.2">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -9227,7 +9269,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" spans="1:26">
+    <row r="314" spans="1:26" ht="13.2">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -9255,7 +9297,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" spans="1:26">
+    <row r="315" spans="1:26" ht="13.2">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -9283,7 +9325,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" spans="1:26">
+    <row r="316" spans="1:26" ht="13.2">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -9311,7 +9353,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" spans="1:26">
+    <row r="317" spans="1:26" ht="13.2">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -9339,7 +9381,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" spans="1:26">
+    <row r="318" spans="1:26" ht="13.2">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9367,7 +9409,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" spans="1:26">
+    <row r="319" spans="1:26" ht="13.2">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -9395,7 +9437,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" spans="1:26">
+    <row r="320" spans="1:26" ht="13.2">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -9423,7 +9465,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" spans="1:26">
+    <row r="321" spans="1:26" ht="13.2">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -9451,7 +9493,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" spans="1:26">
+    <row r="322" spans="1:26" ht="13.2">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -9479,7 +9521,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" spans="1:26">
+    <row r="323" spans="1:26" ht="13.2">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -9507,7 +9549,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" spans="1:26">
+    <row r="324" spans="1:26" ht="13.2">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -9535,7 +9577,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" spans="1:26">
+    <row r="325" spans="1:26" ht="13.2">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -9563,7 +9605,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" spans="1:26">
+    <row r="326" spans="1:26" ht="13.2">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -9591,7 +9633,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" spans="1:26">
+    <row r="327" spans="1:26" ht="13.2">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -9619,7 +9661,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" spans="1:26">
+    <row r="328" spans="1:26" ht="13.2">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -9647,7 +9689,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" spans="1:26">
+    <row r="329" spans="1:26" ht="13.2">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -9675,7 +9717,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" spans="1:26">
+    <row r="330" spans="1:26" ht="13.2">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -9703,7 +9745,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" spans="1:26">
+    <row r="331" spans="1:26" ht="13.2">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -9731,7 +9773,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" spans="1:26">
+    <row r="332" spans="1:26" ht="13.2">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -9759,7 +9801,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" spans="1:26">
+    <row r="333" spans="1:26" ht="13.2">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -9787,7 +9829,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" spans="1:26">
+    <row r="334" spans="1:26" ht="13.2">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -9815,7 +9857,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" spans="1:26">
+    <row r="335" spans="1:26" ht="13.2">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -9843,7 +9885,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" spans="1:26">
+    <row r="336" spans="1:26" ht="13.2">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -9871,7 +9913,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" spans="1:26">
+    <row r="337" spans="1:26" ht="13.2">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -9899,7 +9941,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" spans="1:26">
+    <row r="338" spans="1:26" ht="13.2">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -9927,7 +9969,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" spans="1:26">
+    <row r="339" spans="1:26" ht="13.2">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -9955,7 +9997,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" spans="1:26">
+    <row r="340" spans="1:26" ht="13.2">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -9983,7 +10025,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" spans="1:26">
+    <row r="341" spans="1:26" ht="13.2">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -10011,7 +10053,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" spans="1:26">
+    <row r="342" spans="1:26" ht="13.2">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -10039,7 +10081,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" spans="1:26">
+    <row r="343" spans="1:26" ht="13.2">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -10067,7 +10109,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" spans="1:26">
+    <row r="344" spans="1:26" ht="13.2">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -10095,7 +10137,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" spans="1:26">
+    <row r="345" spans="1:26" ht="13.2">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -10123,7 +10165,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" spans="1:26">
+    <row r="346" spans="1:26" ht="13.2">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -10151,7 +10193,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" spans="1:26">
+    <row r="347" spans="1:26" ht="13.2">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -10179,7 +10221,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" spans="1:26">
+    <row r="348" spans="1:26" ht="13.2">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -10207,7 +10249,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" spans="1:26">
+    <row r="349" spans="1:26" ht="13.2">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -10235,7 +10277,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" spans="1:26">
+    <row r="350" spans="1:26" ht="13.2">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -10263,7 +10305,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" spans="1:26">
+    <row r="351" spans="1:26" ht="13.2">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -10291,7 +10333,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" spans="1:26">
+    <row r="352" spans="1:26" ht="13.2">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -10319,7 +10361,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" spans="1:26">
+    <row r="353" spans="1:26" ht="13.2">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -10347,7 +10389,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" spans="1:26">
+    <row r="354" spans="1:26" ht="13.2">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -10375,7 +10417,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" spans="1:26">
+    <row r="355" spans="1:26" ht="13.2">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -10403,7 +10445,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" spans="1:26">
+    <row r="356" spans="1:26" ht="13.2">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -10431,7 +10473,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" spans="1:26">
+    <row r="357" spans="1:26" ht="13.2">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -10459,7 +10501,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" spans="1:26">
+    <row r="358" spans="1:26" ht="13.2">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -10487,7 +10529,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" spans="1:26">
+    <row r="359" spans="1:26" ht="13.2">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -10515,7 +10557,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" spans="1:26">
+    <row r="360" spans="1:26" ht="13.2">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -10543,7 +10585,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" spans="1:26">
+    <row r="361" spans="1:26" ht="13.2">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -10571,7 +10613,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" spans="1:26">
+    <row r="362" spans="1:26" ht="13.2">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -10599,7 +10641,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" spans="1:26">
+    <row r="363" spans="1:26" ht="13.2">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -10627,7 +10669,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" spans="1:26">
+    <row r="364" spans="1:26" ht="13.2">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -10655,7 +10697,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" spans="1:26">
+    <row r="365" spans="1:26" ht="13.2">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -10683,7 +10725,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" spans="1:26">
+    <row r="366" spans="1:26" ht="13.2">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -10711,7 +10753,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" spans="1:26">
+    <row r="367" spans="1:26" ht="13.2">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -10739,7 +10781,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" spans="1:26">
+    <row r="368" spans="1:26" ht="13.2">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -10767,7 +10809,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" spans="1:26">
+    <row r="369" spans="1:26" ht="13.2">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -10795,7 +10837,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" spans="1:26">
+    <row r="370" spans="1:26" ht="13.2">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -10823,7 +10865,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" spans="1:26">
+    <row r="371" spans="1:26" ht="13.2">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -10851,7 +10893,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" spans="1:26">
+    <row r="372" spans="1:26" ht="13.2">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -10879,7 +10921,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" spans="1:26">
+    <row r="373" spans="1:26" ht="13.2">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -10907,7 +10949,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" spans="1:26">
+    <row r="374" spans="1:26" ht="13.2">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -10935,7 +10977,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" spans="1:26">
+    <row r="375" spans="1:26" ht="13.2">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -10963,7 +11005,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" spans="1:26">
+    <row r="376" spans="1:26" ht="13.2">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -10991,7 +11033,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" spans="1:26">
+    <row r="377" spans="1:26" ht="13.2">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -11019,7 +11061,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" spans="1:26">
+    <row r="378" spans="1:26" ht="13.2">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -11047,7 +11089,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" spans="1:26">
+    <row r="379" spans="1:26" ht="13.2">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -11075,7 +11117,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" spans="1:26">
+    <row r="380" spans="1:26" ht="13.2">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -11103,7 +11145,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" spans="1:26">
+    <row r="381" spans="1:26" ht="13.2">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -11131,7 +11173,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" spans="1:26">
+    <row r="382" spans="1:26" ht="13.2">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -11159,7 +11201,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" spans="1:26">
+    <row r="383" spans="1:26" ht="13.2">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -11187,7 +11229,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" spans="1:26">
+    <row r="384" spans="1:26" ht="13.2">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -11215,7 +11257,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" spans="1:26">
+    <row r="385" spans="1:26" ht="13.2">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -11243,7 +11285,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" spans="1:26">
+    <row r="386" spans="1:26" ht="13.2">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -11271,7 +11313,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" spans="1:26">
+    <row r="387" spans="1:26" ht="13.2">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -11299,7 +11341,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" spans="1:26">
+    <row r="388" spans="1:26" ht="13.2">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -11327,7 +11369,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" spans="1:26">
+    <row r="389" spans="1:26" ht="13.2">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -11355,7 +11397,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" spans="1:26">
+    <row r="390" spans="1:26" ht="13.2">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -11383,7 +11425,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" spans="1:26">
+    <row r="391" spans="1:26" ht="13.2">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -11411,7 +11453,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" spans="1:26">
+    <row r="392" spans="1:26" ht="13.2">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -11439,7 +11481,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" spans="1:26">
+    <row r="393" spans="1:26" ht="13.2">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -11467,7 +11509,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" spans="1:26">
+    <row r="394" spans="1:26" ht="13.2">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -11495,7 +11537,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" spans="1:26">
+    <row r="395" spans="1:26" ht="13.2">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -11523,7 +11565,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" spans="1:26">
+    <row r="396" spans="1:26" ht="13.2">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -11551,7 +11593,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" spans="1:26">
+    <row r="397" spans="1:26" ht="13.2">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -11579,7 +11621,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" spans="1:26">
+    <row r="398" spans="1:26" ht="13.2">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -11607,7 +11649,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" spans="1:26">
+    <row r="399" spans="1:26" ht="13.2">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -11635,7 +11677,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" spans="1:26">
+    <row r="400" spans="1:26" ht="13.2">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -11663,7 +11705,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" spans="1:26">
+    <row r="401" spans="1:26" ht="13.2">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -11691,7 +11733,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" spans="1:26">
+    <row r="402" spans="1:26" ht="13.2">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -11719,7 +11761,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" spans="1:26">
+    <row r="403" spans="1:26" ht="13.2">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -11747,7 +11789,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" spans="1:26">
+    <row r="404" spans="1:26" ht="13.2">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -11775,7 +11817,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" spans="1:26">
+    <row r="405" spans="1:26" ht="13.2">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -11803,7 +11845,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" spans="1:26">
+    <row r="406" spans="1:26" ht="13.2">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -11831,7 +11873,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" spans="1:26">
+    <row r="407" spans="1:26" ht="13.2">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -11859,7 +11901,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" spans="1:26">
+    <row r="408" spans="1:26" ht="13.2">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -11887,7 +11929,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" spans="1:26">
+    <row r="409" spans="1:26" ht="13.2">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -11915,7 +11957,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" spans="1:26">
+    <row r="410" spans="1:26" ht="13.2">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -11943,7 +11985,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" spans="1:26">
+    <row r="411" spans="1:26" ht="13.2">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -11971,7 +12013,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" spans="1:26">
+    <row r="412" spans="1:26" ht="13.2">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -11999,7 +12041,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" spans="1:26">
+    <row r="413" spans="1:26" ht="13.2">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -12027,7 +12069,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" spans="1:26">
+    <row r="414" spans="1:26" ht="13.2">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -12055,7 +12097,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" spans="1:26">
+    <row r="415" spans="1:26" ht="13.2">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -12083,7 +12125,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" spans="1:26">
+    <row r="416" spans="1:26" ht="13.2">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -12111,7 +12153,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" spans="1:26">
+    <row r="417" spans="1:26" ht="13.2">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -12139,7 +12181,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" spans="1:26">
+    <row r="418" spans="1:26" ht="13.2">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -12167,7 +12209,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" spans="1:26">
+    <row r="419" spans="1:26" ht="13.2">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -12195,7 +12237,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" spans="1:26">
+    <row r="420" spans="1:26" ht="13.2">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -12223,7 +12265,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" spans="1:26">
+    <row r="421" spans="1:26" ht="13.2">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -12251,7 +12293,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" spans="1:26">
+    <row r="422" spans="1:26" ht="13.2">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -12279,7 +12321,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" spans="1:26">
+    <row r="423" spans="1:26" ht="13.2">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -12307,7 +12349,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" spans="1:26">
+    <row r="424" spans="1:26" ht="13.2">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -12335,7 +12377,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" spans="1:26">
+    <row r="425" spans="1:26" ht="13.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -12363,7 +12405,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" spans="1:26">
+    <row r="426" spans="1:26" ht="13.2">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -12391,7 +12433,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" spans="1:26">
+    <row r="427" spans="1:26" ht="13.2">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -12419,7 +12461,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" spans="1:26">
+    <row r="428" spans="1:26" ht="13.2">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -12447,7 +12489,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" spans="1:26">
+    <row r="429" spans="1:26" ht="13.2">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -12475,7 +12517,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" spans="1:26">
+    <row r="430" spans="1:26" ht="13.2">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -12503,7 +12545,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" spans="1:26">
+    <row r="431" spans="1:26" ht="13.2">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -12531,7 +12573,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" spans="1:26">
+    <row r="432" spans="1:26" ht="13.2">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -12559,7 +12601,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" spans="1:26">
+    <row r="433" spans="1:26" ht="13.2">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -12587,7 +12629,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" spans="1:26">
+    <row r="434" spans="1:26" ht="13.2">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -12615,7 +12657,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" spans="1:26">
+    <row r="435" spans="1:26" ht="13.2">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -12643,7 +12685,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" spans="1:26">
+    <row r="436" spans="1:26" ht="13.2">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -12671,7 +12713,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" spans="1:26">
+    <row r="437" spans="1:26" ht="13.2">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -12699,7 +12741,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" spans="1:26">
+    <row r="438" spans="1:26" ht="13.2">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -12727,7 +12769,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" spans="1:26">
+    <row r="439" spans="1:26" ht="13.2">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -12755,7 +12797,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" spans="1:26">
+    <row r="440" spans="1:26" ht="13.2">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -12783,7 +12825,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" spans="1:26">
+    <row r="441" spans="1:26" ht="13.2">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -12811,7 +12853,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" spans="1:26">
+    <row r="442" spans="1:26" ht="13.2">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -12839,7 +12881,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" spans="1:26">
+    <row r="443" spans="1:26" ht="13.2">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -12867,7 +12909,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" spans="1:26">
+    <row r="444" spans="1:26" ht="13.2">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -12895,7 +12937,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" spans="1:26">
+    <row r="445" spans="1:26" ht="13.2">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -12923,7 +12965,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" spans="1:26">
+    <row r="446" spans="1:26" ht="13.2">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -12951,7 +12993,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" spans="1:26">
+    <row r="447" spans="1:26" ht="13.2">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -12979,7 +13021,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" spans="1:26">
+    <row r="448" spans="1:26" ht="13.2">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -13007,7 +13049,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" spans="1:26">
+    <row r="449" spans="1:26" ht="13.2">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -13035,7 +13077,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" spans="1:26">
+    <row r="450" spans="1:26" ht="13.2">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -13063,7 +13105,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" spans="1:26">
+    <row r="451" spans="1:26" ht="13.2">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -13091,7 +13133,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" spans="1:26">
+    <row r="452" spans="1:26" ht="13.2">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -13119,7 +13161,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" spans="1:26">
+    <row r="453" spans="1:26" ht="13.2">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -13147,7 +13189,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" spans="1:26">
+    <row r="454" spans="1:26" ht="13.2">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -13175,7 +13217,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" spans="1:26">
+    <row r="455" spans="1:26" ht="13.2">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -13203,7 +13245,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" spans="1:26">
+    <row r="456" spans="1:26" ht="13.2">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -13231,7 +13273,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" spans="1:26">
+    <row r="457" spans="1:26" ht="13.2">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -13259,7 +13301,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" spans="1:26">
+    <row r="458" spans="1:26" ht="13.2">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -13287,7 +13329,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" spans="1:26">
+    <row r="459" spans="1:26" ht="13.2">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -13315,7 +13357,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" spans="1:26">
+    <row r="460" spans="1:26" ht="13.2">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -13343,7 +13385,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" spans="1:26">
+    <row r="461" spans="1:26" ht="13.2">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -13371,7 +13413,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" spans="1:26">
+    <row r="462" spans="1:26" ht="13.2">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -13399,7 +13441,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" spans="1:26">
+    <row r="463" spans="1:26" ht="13.2">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -13427,7 +13469,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" spans="1:26">
+    <row r="464" spans="1:26" ht="13.2">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -13455,7 +13497,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" spans="1:26">
+    <row r="465" spans="1:26" ht="13.2">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -13483,7 +13525,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" spans="1:26">
+    <row r="466" spans="1:26" ht="13.2">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -13511,7 +13553,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" spans="1:26">
+    <row r="467" spans="1:26" ht="13.2">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -13539,7 +13581,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" spans="1:26">
+    <row r="468" spans="1:26" ht="13.2">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -13567,7 +13609,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" spans="1:26">
+    <row r="469" spans="1:26" ht="13.2">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -13595,7 +13637,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" spans="1:26">
+    <row r="470" spans="1:26" ht="13.2">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -13623,7 +13665,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" spans="1:26">
+    <row r="471" spans="1:26" ht="13.2">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -13651,7 +13693,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" spans="1:26">
+    <row r="472" spans="1:26" ht="13.2">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -13679,7 +13721,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" spans="1:26">
+    <row r="473" spans="1:26" ht="13.2">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -13707,7 +13749,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" spans="1:26">
+    <row r="474" spans="1:26" ht="13.2">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -13735,7 +13777,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" spans="1:26">
+    <row r="475" spans="1:26" ht="13.2">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -13763,7 +13805,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" spans="1:26">
+    <row r="476" spans="1:26" ht="13.2">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -13791,7 +13833,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" spans="1:26">
+    <row r="477" spans="1:26" ht="13.2">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -13819,7 +13861,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" spans="1:26">
+    <row r="478" spans="1:26" ht="13.2">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -13847,7 +13889,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" spans="1:26">
+    <row r="479" spans="1:26" ht="13.2">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -13875,7 +13917,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" spans="1:26">
+    <row r="480" spans="1:26" ht="13.2">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -13903,7 +13945,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" spans="1:26">
+    <row r="481" spans="1:26" ht="13.2">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -13931,7 +13973,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" spans="1:26">
+    <row r="482" spans="1:26" ht="13.2">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -13959,7 +14001,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" spans="1:26">
+    <row r="483" spans="1:26" ht="13.2">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -13987,7 +14029,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" spans="1:26">
+    <row r="484" spans="1:26" ht="13.2">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -14015,7 +14057,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" spans="1:26">
+    <row r="485" spans="1:26" ht="13.2">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -14043,7 +14085,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" spans="1:26">
+    <row r="486" spans="1:26" ht="13.2">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -14071,7 +14113,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" spans="1:26">
+    <row r="487" spans="1:26" ht="13.2">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -14099,7 +14141,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" spans="1:26">
+    <row r="488" spans="1:26" ht="13.2">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -14127,7 +14169,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" spans="1:26">
+    <row r="489" spans="1:26" ht="13.2">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -14155,7 +14197,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" spans="1:26">
+    <row r="490" spans="1:26" ht="13.2">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -14183,7 +14225,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" spans="1:26">
+    <row r="491" spans="1:26" ht="13.2">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -14211,7 +14253,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" spans="1:26">
+    <row r="492" spans="1:26" ht="13.2">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -14239,7 +14281,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" spans="1:26">
+    <row r="493" spans="1:26" ht="13.2">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -14267,7 +14309,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" spans="1:26">
+    <row r="494" spans="1:26" ht="13.2">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -14295,7 +14337,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" spans="1:26">
+    <row r="495" spans="1:26" ht="13.2">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -14323,7 +14365,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" spans="1:26">
+    <row r="496" spans="1:26" ht="13.2">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -14351,7 +14393,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" spans="1:26">
+    <row r="497" spans="1:26" ht="13.2">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -14379,7 +14421,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" spans="1:26">
+    <row r="498" spans="1:26" ht="13.2">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -14407,7 +14449,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" spans="1:26">
+    <row r="499" spans="1:26" ht="13.2">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -14435,7 +14477,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" spans="1:26">
+    <row r="500" spans="1:26" ht="13.2">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -14463,7 +14505,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" spans="1:26">
+    <row r="501" spans="1:26" ht="13.2">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -14491,7 +14533,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" spans="1:26">
+    <row r="502" spans="1:26" ht="13.2">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -14519,7 +14561,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" spans="1:26">
+    <row r="503" spans="1:26" ht="13.2">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -14547,7 +14589,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" spans="1:26">
+    <row r="504" spans="1:26" ht="13.2">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -14575,7 +14617,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" spans="1:26">
+    <row r="505" spans="1:26" ht="13.2">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -14603,7 +14645,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" spans="1:26">
+    <row r="506" spans="1:26" ht="13.2">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -14631,7 +14673,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" spans="1:26">
+    <row r="507" spans="1:26" ht="13.2">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -14659,7 +14701,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" spans="1:26">
+    <row r="508" spans="1:26" ht="13.2">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -14687,7 +14729,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" spans="1:26">
+    <row r="509" spans="1:26" ht="13.2">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -14715,7 +14757,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" spans="1:26">
+    <row r="510" spans="1:26" ht="13.2">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -14743,7 +14785,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" spans="1:26">
+    <row r="511" spans="1:26" ht="13.2">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -14771,7 +14813,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" spans="1:26">
+    <row r="512" spans="1:26" ht="13.2">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -14799,7 +14841,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" spans="1:26">
+    <row r="513" spans="1:26" ht="13.2">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -14827,7 +14869,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" spans="1:26">
+    <row r="514" spans="1:26" ht="13.2">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -14855,7 +14897,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" spans="1:26">
+    <row r="515" spans="1:26" ht="13.2">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -14883,7 +14925,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" spans="1:26">
+    <row r="516" spans="1:26" ht="13.2">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -14911,7 +14953,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" spans="1:26">
+    <row r="517" spans="1:26" ht="13.2">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -14939,7 +14981,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" spans="1:26">
+    <row r="518" spans="1:26" ht="13.2">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -14967,7 +15009,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" spans="1:26">
+    <row r="519" spans="1:26" ht="13.2">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -14995,7 +15037,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" spans="1:26">
+    <row r="520" spans="1:26" ht="13.2">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -15023,7 +15065,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" spans="1:26">
+    <row r="521" spans="1:26" ht="13.2">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -15051,7 +15093,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" spans="1:26">
+    <row r="522" spans="1:26" ht="13.2">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -15079,7 +15121,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" spans="1:26">
+    <row r="523" spans="1:26" ht="13.2">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -15107,7 +15149,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" spans="1:26">
+    <row r="524" spans="1:26" ht="13.2">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -15135,7 +15177,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" spans="1:26">
+    <row r="525" spans="1:26" ht="13.2">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -15163,7 +15205,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" spans="1:26">
+    <row r="526" spans="1:26" ht="13.2">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -15191,7 +15233,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" spans="1:26">
+    <row r="527" spans="1:26" ht="13.2">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -15219,7 +15261,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" spans="1:26">
+    <row r="528" spans="1:26" ht="13.2">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -15247,7 +15289,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" spans="1:26">
+    <row r="529" spans="1:26" ht="13.2">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -15275,7 +15317,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" spans="1:26">
+    <row r="530" spans="1:26" ht="13.2">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -15303,7 +15345,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" spans="1:26">
+    <row r="531" spans="1:26" ht="13.2">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -15331,7 +15373,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" spans="1:26">
+    <row r="532" spans="1:26" ht="13.2">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -15359,7 +15401,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" spans="1:26">
+    <row r="533" spans="1:26" ht="13.2">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -15387,7 +15429,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" spans="1:26">
+    <row r="534" spans="1:26" ht="13.2">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -15415,7 +15457,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" spans="1:26">
+    <row r="535" spans="1:26" ht="13.2">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -15443,7 +15485,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" spans="1:26">
+    <row r="536" spans="1:26" ht="13.2">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -15471,7 +15513,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" spans="1:26">
+    <row r="537" spans="1:26" ht="13.2">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -15499,7 +15541,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" spans="1:26">
+    <row r="538" spans="1:26" ht="13.2">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -15527,7 +15569,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" spans="1:26">
+    <row r="539" spans="1:26" ht="13.2">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -15555,7 +15597,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" spans="1:26">
+    <row r="540" spans="1:26" ht="13.2">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -15583,7 +15625,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" spans="1:26">
+    <row r="541" spans="1:26" ht="13.2">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -15611,7 +15653,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" spans="1:26">
+    <row r="542" spans="1:26" ht="13.2">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -15639,7 +15681,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" spans="1:26">
+    <row r="543" spans="1:26" ht="13.2">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -15667,7 +15709,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" spans="1:26">
+    <row r="544" spans="1:26" ht="13.2">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -15695,7 +15737,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" spans="1:26">
+    <row r="545" spans="1:26" ht="13.2">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -15723,7 +15765,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" spans="1:26">
+    <row r="546" spans="1:26" ht="13.2">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -15751,7 +15793,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" spans="1:26">
+    <row r="547" spans="1:26" ht="13.2">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -15779,7 +15821,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" spans="1:26">
+    <row r="548" spans="1:26" ht="13.2">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -15807,7 +15849,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" spans="1:26">
+    <row r="549" spans="1:26" ht="13.2">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -15835,7 +15877,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" spans="1:26">
+    <row r="550" spans="1:26" ht="13.2">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -15863,7 +15905,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" spans="1:26">
+    <row r="551" spans="1:26" ht="13.2">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -15891,7 +15933,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" spans="1:26">
+    <row r="552" spans="1:26" ht="13.2">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -15919,7 +15961,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" spans="1:26">
+    <row r="553" spans="1:26" ht="13.2">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -15947,7 +15989,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" spans="1:26">
+    <row r="554" spans="1:26" ht="13.2">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -15975,7 +16017,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" spans="1:26">
+    <row r="555" spans="1:26" ht="13.2">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -16003,7 +16045,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" spans="1:26">
+    <row r="556" spans="1:26" ht="13.2">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -16031,7 +16073,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" spans="1:26">
+    <row r="557" spans="1:26" ht="13.2">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -16059,7 +16101,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" spans="1:26">
+    <row r="558" spans="1:26" ht="13.2">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -16087,7 +16129,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" spans="1:26">
+    <row r="559" spans="1:26" ht="13.2">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -16115,7 +16157,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" spans="1:26">
+    <row r="560" spans="1:26" ht="13.2">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -16143,7 +16185,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" spans="1:26">
+    <row r="561" spans="1:26" ht="13.2">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -16171,7 +16213,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" spans="1:26">
+    <row r="562" spans="1:26" ht="13.2">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -16199,7 +16241,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" spans="1:26">
+    <row r="563" spans="1:26" ht="13.2">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -16227,7 +16269,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" spans="1:26">
+    <row r="564" spans="1:26" ht="13.2">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -16255,7 +16297,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" spans="1:26">
+    <row r="565" spans="1:26" ht="13.2">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -16283,7 +16325,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" spans="1:26">
+    <row r="566" spans="1:26" ht="13.2">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -16311,7 +16353,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" spans="1:26">
+    <row r="567" spans="1:26" ht="13.2">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -16339,7 +16381,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" spans="1:26">
+    <row r="568" spans="1:26" ht="13.2">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -16367,7 +16409,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" spans="1:26">
+    <row r="569" spans="1:26" ht="13.2">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -16395,7 +16437,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" spans="1:26">
+    <row r="570" spans="1:26" ht="13.2">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -16423,7 +16465,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" spans="1:26">
+    <row r="571" spans="1:26" ht="13.2">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -16451,7 +16493,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" spans="1:26">
+    <row r="572" spans="1:26" ht="13.2">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -16479,7 +16521,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" spans="1:26">
+    <row r="573" spans="1:26" ht="13.2">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -16507,7 +16549,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" spans="1:26">
+    <row r="574" spans="1:26" ht="13.2">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -16535,7 +16577,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" spans="1:26">
+    <row r="575" spans="1:26" ht="13.2">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -16563,7 +16605,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" spans="1:26">
+    <row r="576" spans="1:26" ht="13.2">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -16591,7 +16633,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" spans="1:26">
+    <row r="577" spans="1:26" ht="13.2">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -16619,7 +16661,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" spans="1:26">
+    <row r="578" spans="1:26" ht="13.2">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -16647,7 +16689,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" spans="1:26">
+    <row r="579" spans="1:26" ht="13.2">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -16675,7 +16717,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" spans="1:26">
+    <row r="580" spans="1:26" ht="13.2">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -16703,7 +16745,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" spans="1:26">
+    <row r="581" spans="1:26" ht="13.2">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -16731,7 +16773,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" spans="1:26">
+    <row r="582" spans="1:26" ht="13.2">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -16759,7 +16801,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" spans="1:26">
+    <row r="583" spans="1:26" ht="13.2">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -16787,7 +16829,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" spans="1:26">
+    <row r="584" spans="1:26" ht="13.2">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -16815,7 +16857,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" spans="1:26">
+    <row r="585" spans="1:26" ht="13.2">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -16843,7 +16885,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" spans="1:26">
+    <row r="586" spans="1:26" ht="13.2">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -16871,7 +16913,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" spans="1:26">
+    <row r="587" spans="1:26" ht="13.2">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -16899,7 +16941,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" spans="1:26">
+    <row r="588" spans="1:26" ht="13.2">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -16927,7 +16969,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" spans="1:26">
+    <row r="589" spans="1:26" ht="13.2">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -16955,7 +16997,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" spans="1:26">
+    <row r="590" spans="1:26" ht="13.2">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -16983,7 +17025,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" spans="1:26">
+    <row r="591" spans="1:26" ht="13.2">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -17011,7 +17053,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" spans="1:26">
+    <row r="592" spans="1:26" ht="13.2">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -17039,7 +17081,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" spans="1:26">
+    <row r="593" spans="1:26" ht="13.2">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -17067,7 +17109,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" spans="1:26">
+    <row r="594" spans="1:26" ht="13.2">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -17095,7 +17137,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" spans="1:26">
+    <row r="595" spans="1:26" ht="13.2">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -17123,7 +17165,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" spans="1:26">
+    <row r="596" spans="1:26" ht="13.2">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -17151,7 +17193,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" spans="1:26">
+    <row r="597" spans="1:26" ht="13.2">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -17179,7 +17221,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" spans="1:26">
+    <row r="598" spans="1:26" ht="13.2">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -17207,7 +17249,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" spans="1:26">
+    <row r="599" spans="1:26" ht="13.2">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -17235,7 +17277,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" spans="1:26">
+    <row r="600" spans="1:26" ht="13.2">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -17263,7 +17305,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" spans="1:26">
+    <row r="601" spans="1:26" ht="13.2">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -17291,7 +17333,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" spans="1:26">
+    <row r="602" spans="1:26" ht="13.2">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -17319,7 +17361,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" spans="1:26">
+    <row r="603" spans="1:26" ht="13.2">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -17347,7 +17389,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" spans="1:26">
+    <row r="604" spans="1:26" ht="13.2">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -17375,7 +17417,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" spans="1:26">
+    <row r="605" spans="1:26" ht="13.2">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -17403,7 +17445,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" spans="1:26">
+    <row r="606" spans="1:26" ht="13.2">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -17431,7 +17473,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" spans="1:26">
+    <row r="607" spans="1:26" ht="13.2">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -17459,7 +17501,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" spans="1:26">
+    <row r="608" spans="1:26" ht="13.2">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -17487,7 +17529,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" spans="1:26">
+    <row r="609" spans="1:26" ht="13.2">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -17515,7 +17557,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" spans="1:26">
+    <row r="610" spans="1:26" ht="13.2">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -17543,7 +17585,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" spans="1:26">
+    <row r="611" spans="1:26" ht="13.2">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -17571,7 +17613,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" spans="1:26">
+    <row r="612" spans="1:26" ht="13.2">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -17599,7 +17641,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" spans="1:26">
+    <row r="613" spans="1:26" ht="13.2">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -17627,7 +17669,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" spans="1:26">
+    <row r="614" spans="1:26" ht="13.2">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -17655,7 +17697,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" spans="1:26">
+    <row r="615" spans="1:26" ht="13.2">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -17683,7 +17725,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" spans="1:26">
+    <row r="616" spans="1:26" ht="13.2">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -17711,7 +17753,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" spans="1:26">
+    <row r="617" spans="1:26" ht="13.2">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -17739,7 +17781,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" spans="1:26">
+    <row r="618" spans="1:26" ht="13.2">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -17767,7 +17809,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" spans="1:26">
+    <row r="619" spans="1:26" ht="13.2">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -17795,7 +17837,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" spans="1:26">
+    <row r="620" spans="1:26" ht="13.2">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -17823,7 +17865,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" spans="1:26">
+    <row r="621" spans="1:26" ht="13.2">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -17851,7 +17893,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" spans="1:26">
+    <row r="622" spans="1:26" ht="13.2">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -17879,7 +17921,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" spans="1:26">
+    <row r="623" spans="1:26" ht="13.2">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -17907,7 +17949,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" spans="1:26">
+    <row r="624" spans="1:26" ht="13.2">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -17935,7 +17977,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" spans="1:26">
+    <row r="625" spans="1:26" ht="13.2">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -17963,7 +18005,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" spans="1:26">
+    <row r="626" spans="1:26" ht="13.2">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -17991,7 +18033,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" spans="1:26">
+    <row r="627" spans="1:26" ht="13.2">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -18019,7 +18061,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" spans="1:26">
+    <row r="628" spans="1:26" ht="13.2">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -18047,7 +18089,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" spans="1:26">
+    <row r="629" spans="1:26" ht="13.2">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -18075,7 +18117,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" spans="1:26">
+    <row r="630" spans="1:26" ht="13.2">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -18103,7 +18145,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" spans="1:26">
+    <row r="631" spans="1:26" ht="13.2">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -18131,7 +18173,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" spans="1:26">
+    <row r="632" spans="1:26" ht="13.2">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -18159,7 +18201,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" spans="1:26">
+    <row r="633" spans="1:26" ht="13.2">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -18187,7 +18229,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" spans="1:26">
+    <row r="634" spans="1:26" ht="13.2">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -18215,7 +18257,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" spans="1:26">
+    <row r="635" spans="1:26" ht="13.2">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -18243,7 +18285,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" spans="1:26">
+    <row r="636" spans="1:26" ht="13.2">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -18271,7 +18313,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" spans="1:26">
+    <row r="637" spans="1:26" ht="13.2">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -18299,7 +18341,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" spans="1:26">
+    <row r="638" spans="1:26" ht="13.2">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -18327,7 +18369,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" spans="1:26">
+    <row r="639" spans="1:26" ht="13.2">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -18355,7 +18397,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" spans="1:26">
+    <row r="640" spans="1:26" ht="13.2">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -18383,7 +18425,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" spans="1:26">
+    <row r="641" spans="1:26" ht="13.2">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -18411,7 +18453,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" spans="1:26">
+    <row r="642" spans="1:26" ht="13.2">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -18439,7 +18481,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" spans="1:26">
+    <row r="643" spans="1:26" ht="13.2">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -18467,7 +18509,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" spans="1:26">
+    <row r="644" spans="1:26" ht="13.2">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -18495,7 +18537,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" spans="1:26">
+    <row r="645" spans="1:26" ht="13.2">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -18523,7 +18565,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" spans="1:26">
+    <row r="646" spans="1:26" ht="13.2">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -18551,7 +18593,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" spans="1:26">
+    <row r="647" spans="1:26" ht="13.2">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -18579,7 +18621,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" spans="1:26">
+    <row r="648" spans="1:26" ht="13.2">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -18607,7 +18649,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" spans="1:26">
+    <row r="649" spans="1:26" ht="13.2">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -18635,7 +18677,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" spans="1:26">
+    <row r="650" spans="1:26" ht="13.2">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -18663,7 +18705,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" spans="1:26">
+    <row r="651" spans="1:26" ht="13.2">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -18691,7 +18733,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" spans="1:26">
+    <row r="652" spans="1:26" ht="13.2">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -18719,7 +18761,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" spans="1:26">
+    <row r="653" spans="1:26" ht="13.2">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -18747,7 +18789,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" spans="1:26">
+    <row r="654" spans="1:26" ht="13.2">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -18775,7 +18817,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" spans="1:26">
+    <row r="655" spans="1:26" ht="13.2">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -18803,7 +18845,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" spans="1:26">
+    <row r="656" spans="1:26" ht="13.2">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -18831,7 +18873,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" spans="1:26">
+    <row r="657" spans="1:26" ht="13.2">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -18859,7 +18901,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" spans="1:26">
+    <row r="658" spans="1:26" ht="13.2">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -18887,7 +18929,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" spans="1:26">
+    <row r="659" spans="1:26" ht="13.2">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -18915,7 +18957,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" spans="1:26">
+    <row r="660" spans="1:26" ht="13.2">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -18943,7 +18985,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" spans="1:26">
+    <row r="661" spans="1:26" ht="13.2">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -18971,7 +19013,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" spans="1:26">
+    <row r="662" spans="1:26" ht="13.2">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -18999,7 +19041,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" spans="1:26">
+    <row r="663" spans="1:26" ht="13.2">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -19027,7 +19069,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" spans="1:26">
+    <row r="664" spans="1:26" ht="13.2">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -19055,7 +19097,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" spans="1:26">
+    <row r="665" spans="1:26" ht="13.2">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -19083,7 +19125,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" spans="1:26">
+    <row r="666" spans="1:26" ht="13.2">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -19111,7 +19153,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" spans="1:26">
+    <row r="667" spans="1:26" ht="13.2">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -19139,7 +19181,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" spans="1:26">
+    <row r="668" spans="1:26" ht="13.2">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -19167,7 +19209,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" spans="1:26">
+    <row r="669" spans="1:26" ht="13.2">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -19195,7 +19237,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" spans="1:26">
+    <row r="670" spans="1:26" ht="13.2">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -19223,7 +19265,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" spans="1:26">
+    <row r="671" spans="1:26" ht="13.2">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -19251,7 +19293,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" spans="1:26">
+    <row r="672" spans="1:26" ht="13.2">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -19279,7 +19321,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" spans="1:26">
+    <row r="673" spans="1:26" ht="13.2">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -19307,7 +19349,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" spans="1:26">
+    <row r="674" spans="1:26" ht="13.2">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -19335,7 +19377,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" spans="1:26">
+    <row r="675" spans="1:26" ht="13.2">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -19363,7 +19405,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" spans="1:26">
+    <row r="676" spans="1:26" ht="13.2">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -19391,7 +19433,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" spans="1:26">
+    <row r="677" spans="1:26" ht="13.2">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -19419,7 +19461,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" spans="1:26">
+    <row r="678" spans="1:26" ht="13.2">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -19447,7 +19489,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" spans="1:26">
+    <row r="679" spans="1:26" ht="13.2">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -19475,7 +19517,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" spans="1:26">
+    <row r="680" spans="1:26" ht="13.2">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -19503,7 +19545,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" spans="1:26">
+    <row r="681" spans="1:26" ht="13.2">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -19531,7 +19573,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" spans="1:26">
+    <row r="682" spans="1:26" ht="13.2">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -19559,7 +19601,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" spans="1:26">
+    <row r="683" spans="1:26" ht="13.2">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -19587,7 +19629,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" spans="1:26">
+    <row r="684" spans="1:26" ht="13.2">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -19615,7 +19657,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" spans="1:26">
+    <row r="685" spans="1:26" ht="13.2">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -19643,7 +19685,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" spans="1:26">
+    <row r="686" spans="1:26" ht="13.2">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -19671,7 +19713,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" spans="1:26">
+    <row r="687" spans="1:26" ht="13.2">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -19699,7 +19741,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" spans="1:26">
+    <row r="688" spans="1:26" ht="13.2">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -19727,7 +19769,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" spans="1:26">
+    <row r="689" spans="1:26" ht="13.2">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -19755,7 +19797,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" spans="1:26">
+    <row r="690" spans="1:26" ht="13.2">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -19783,7 +19825,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" spans="1:26">
+    <row r="691" spans="1:26" ht="13.2">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -19811,7 +19853,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" spans="1:26">
+    <row r="692" spans="1:26" ht="13.2">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -19839,7 +19881,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" spans="1:26">
+    <row r="693" spans="1:26" ht="13.2">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -19867,7 +19909,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" spans="1:26">
+    <row r="694" spans="1:26" ht="13.2">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -19895,7 +19937,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" spans="1:26">
+    <row r="695" spans="1:26" ht="13.2">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -19923,7 +19965,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" spans="1:26">
+    <row r="696" spans="1:26" ht="13.2">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -19951,7 +19993,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" spans="1:26">
+    <row r="697" spans="1:26" ht="13.2">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -19979,7 +20021,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" spans="1:26">
+    <row r="698" spans="1:26" ht="13.2">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -20007,7 +20049,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" spans="1:26">
+    <row r="699" spans="1:26" ht="13.2">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -20035,7 +20077,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" spans="1:26">
+    <row r="700" spans="1:26" ht="13.2">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -20063,7 +20105,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" spans="1:26">
+    <row r="701" spans="1:26" ht="13.2">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -20091,7 +20133,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" spans="1:26">
+    <row r="702" spans="1:26" ht="13.2">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -20119,7 +20161,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" spans="1:26">
+    <row r="703" spans="1:26" ht="13.2">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -20147,7 +20189,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" spans="1:26">
+    <row r="704" spans="1:26" ht="13.2">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -20175,7 +20217,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" spans="1:26">
+    <row r="705" spans="1:26" ht="13.2">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -20203,7 +20245,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" spans="1:26">
+    <row r="706" spans="1:26" ht="13.2">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -20231,7 +20273,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" spans="1:26">
+    <row r="707" spans="1:26" ht="13.2">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -20259,7 +20301,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" spans="1:26">
+    <row r="708" spans="1:26" ht="13.2">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -20287,7 +20329,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" spans="1:26">
+    <row r="709" spans="1:26" ht="13.2">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -20315,7 +20357,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" spans="1:26">
+    <row r="710" spans="1:26" ht="13.2">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -20343,7 +20385,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" spans="1:26">
+    <row r="711" spans="1:26" ht="13.2">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -20371,7 +20413,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" spans="1:26">
+    <row r="712" spans="1:26" ht="13.2">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -20399,7 +20441,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" spans="1:26">
+    <row r="713" spans="1:26" ht="13.2">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -20427,7 +20469,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" spans="1:26">
+    <row r="714" spans="1:26" ht="13.2">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -20455,7 +20497,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" spans="1:26">
+    <row r="715" spans="1:26" ht="13.2">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -20483,7 +20525,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" spans="1:26">
+    <row r="716" spans="1:26" ht="13.2">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -20511,7 +20553,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" spans="1:26">
+    <row r="717" spans="1:26" ht="13.2">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -20539,7 +20581,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" spans="1:26">
+    <row r="718" spans="1:26" ht="13.2">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -20567,7 +20609,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" spans="1:26">
+    <row r="719" spans="1:26" ht="13.2">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -20595,7 +20637,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" spans="1:26">
+    <row r="720" spans="1:26" ht="13.2">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -20623,7 +20665,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" spans="1:26">
+    <row r="721" spans="1:26" ht="13.2">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -20651,7 +20693,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" spans="1:26">
+    <row r="722" spans="1:26" ht="13.2">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -20679,7 +20721,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" spans="1:26">
+    <row r="723" spans="1:26" ht="13.2">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -20707,7 +20749,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" spans="1:26">
+    <row r="724" spans="1:26" ht="13.2">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -20735,7 +20777,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" spans="1:26">
+    <row r="725" spans="1:26" ht="13.2">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -20763,7 +20805,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" spans="1:26">
+    <row r="726" spans="1:26" ht="13.2">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -20791,7 +20833,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" spans="1:26">
+    <row r="727" spans="1:26" ht="13.2">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -20819,7 +20861,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" spans="1:26">
+    <row r="728" spans="1:26" ht="13.2">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -20847,7 +20889,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" spans="1:26">
+    <row r="729" spans="1:26" ht="13.2">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -20875,7 +20917,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" spans="1:26">
+    <row r="730" spans="1:26" ht="13.2">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -20903,7 +20945,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" spans="1:26">
+    <row r="731" spans="1:26" ht="13.2">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -20931,7 +20973,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" spans="1:26">
+    <row r="732" spans="1:26" ht="13.2">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -20959,7 +21001,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" spans="1:26">
+    <row r="733" spans="1:26" ht="13.2">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -20987,7 +21029,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" spans="1:26">
+    <row r="734" spans="1:26" ht="13.2">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -21015,7 +21057,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" spans="1:26">
+    <row r="735" spans="1:26" ht="13.2">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -21043,7 +21085,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" spans="1:26">
+    <row r="736" spans="1:26" ht="13.2">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -21071,7 +21113,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" spans="1:26">
+    <row r="737" spans="1:26" ht="13.2">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -21099,7 +21141,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" spans="1:26">
+    <row r="738" spans="1:26" ht="13.2">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -21127,7 +21169,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" spans="1:26">
+    <row r="739" spans="1:26" ht="13.2">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -21155,7 +21197,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" spans="1:26">
+    <row r="740" spans="1:26" ht="13.2">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -21183,7 +21225,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" spans="1:26">
+    <row r="741" spans="1:26" ht="13.2">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -21211,7 +21253,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" spans="1:26">
+    <row r="742" spans="1:26" ht="13.2">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -21239,7 +21281,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" spans="1:26">
+    <row r="743" spans="1:26" ht="13.2">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -21267,7 +21309,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" spans="1:26">
+    <row r="744" spans="1:26" ht="13.2">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -21295,7 +21337,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" spans="1:26">
+    <row r="745" spans="1:26" ht="13.2">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -21323,7 +21365,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" spans="1:26">
+    <row r="746" spans="1:26" ht="13.2">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -21351,7 +21393,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" spans="1:26">
+    <row r="747" spans="1:26" ht="13.2">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -21379,7 +21421,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" spans="1:26">
+    <row r="748" spans="1:26" ht="13.2">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -21407,7 +21449,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" spans="1:26">
+    <row r="749" spans="1:26" ht="13.2">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -21435,7 +21477,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" spans="1:26">
+    <row r="750" spans="1:26" ht="13.2">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -21463,7 +21505,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" spans="1:26">
+    <row r="751" spans="1:26" ht="13.2">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -21491,7 +21533,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" spans="1:26">
+    <row r="752" spans="1:26" ht="13.2">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -21519,7 +21561,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" spans="1:26">
+    <row r="753" spans="1:26" ht="13.2">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -21547,7 +21589,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" spans="1:26">
+    <row r="754" spans="1:26" ht="13.2">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -21575,7 +21617,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" spans="1:26">
+    <row r="755" spans="1:26" ht="13.2">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -21603,7 +21645,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" spans="1:26">
+    <row r="756" spans="1:26" ht="13.2">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -21631,7 +21673,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" spans="1:26">
+    <row r="757" spans="1:26" ht="13.2">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -21659,7 +21701,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" spans="1:26">
+    <row r="758" spans="1:26" ht="13.2">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -21687,7 +21729,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" spans="1:26">
+    <row r="759" spans="1:26" ht="13.2">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -21715,7 +21757,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" spans="1:26">
+    <row r="760" spans="1:26" ht="13.2">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -21743,7 +21785,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" spans="1:26">
+    <row r="761" spans="1:26" ht="13.2">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -21771,7 +21813,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" spans="1:26">
+    <row r="762" spans="1:26" ht="13.2">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -21799,7 +21841,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" spans="1:26">
+    <row r="763" spans="1:26" ht="13.2">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -21827,7 +21869,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" spans="1:26">
+    <row r="764" spans="1:26" ht="13.2">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -21855,7 +21897,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" spans="1:26">
+    <row r="765" spans="1:26" ht="13.2">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -21883,7 +21925,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" spans="1:26">
+    <row r="766" spans="1:26" ht="13.2">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -21911,7 +21953,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" spans="1:26">
+    <row r="767" spans="1:26" ht="13.2">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -21939,7 +21981,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" spans="1:26">
+    <row r="768" spans="1:26" ht="13.2">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -21967,7 +22009,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" spans="1:26">
+    <row r="769" spans="1:26" ht="13.2">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -21995,7 +22037,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" spans="1:26">
+    <row r="770" spans="1:26" ht="13.2">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -22023,7 +22065,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" spans="1:26">
+    <row r="771" spans="1:26" ht="13.2">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -22051,7 +22093,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" spans="1:26">
+    <row r="772" spans="1:26" ht="13.2">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -22079,7 +22121,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" spans="1:26">
+    <row r="773" spans="1:26" ht="13.2">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -22107,7 +22149,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" spans="1:26">
+    <row r="774" spans="1:26" ht="13.2">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -22135,7 +22177,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" spans="1:26">
+    <row r="775" spans="1:26" ht="13.2">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -22163,7 +22205,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" spans="1:26">
+    <row r="776" spans="1:26" ht="13.2">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -22191,7 +22233,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" spans="1:26">
+    <row r="777" spans="1:26" ht="13.2">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -22219,7 +22261,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" spans="1:26">
+    <row r="778" spans="1:26" ht="13.2">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -22247,7 +22289,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" spans="1:26">
+    <row r="779" spans="1:26" ht="13.2">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -22275,7 +22317,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" spans="1:26">
+    <row r="780" spans="1:26" ht="13.2">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -22303,7 +22345,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" spans="1:26">
+    <row r="781" spans="1:26" ht="13.2">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -22331,7 +22373,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" spans="1:26">
+    <row r="782" spans="1:26" ht="13.2">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -22359,7 +22401,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" spans="1:26">
+    <row r="783" spans="1:26" ht="13.2">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -22387,7 +22429,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" spans="1:26">
+    <row r="784" spans="1:26" ht="13.2">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -22415,7 +22457,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" spans="1:26">
+    <row r="785" spans="1:26" ht="13.2">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -22443,7 +22485,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" spans="1:26">
+    <row r="786" spans="1:26" ht="13.2">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -22471,7 +22513,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" spans="1:26">
+    <row r="787" spans="1:26" ht="13.2">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -22499,7 +22541,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" spans="1:26">
+    <row r="788" spans="1:26" ht="13.2">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -22527,7 +22569,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" spans="1:26">
+    <row r="789" spans="1:26" ht="13.2">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -22555,7 +22597,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" spans="1:26">
+    <row r="790" spans="1:26" ht="13.2">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -22583,7 +22625,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" spans="1:26">
+    <row r="791" spans="1:26" ht="13.2">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -22611,7 +22653,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" spans="1:26">
+    <row r="792" spans="1:26" ht="13.2">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -22639,7 +22681,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" spans="1:26">
+    <row r="793" spans="1:26" ht="13.2">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -22667,7 +22709,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" spans="1:26">
+    <row r="794" spans="1:26" ht="13.2">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -22695,7 +22737,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" spans="1:26">
+    <row r="795" spans="1:26" ht="13.2">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -22723,7 +22765,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" spans="1:26">
+    <row r="796" spans="1:26" ht="13.2">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -22751,7 +22793,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" spans="1:26">
+    <row r="797" spans="1:26" ht="13.2">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -22779,7 +22821,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" spans="1:26">
+    <row r="798" spans="1:26" ht="13.2">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -22807,7 +22849,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" spans="1:26">
+    <row r="799" spans="1:26" ht="13.2">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -22835,7 +22877,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" spans="1:26">
+    <row r="800" spans="1:26" ht="13.2">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -22863,7 +22905,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" spans="1:26">
+    <row r="801" spans="1:26" ht="13.2">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -22891,7 +22933,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" spans="1:26">
+    <row r="802" spans="1:26" ht="13.2">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -22919,7 +22961,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" spans="1:26">
+    <row r="803" spans="1:26" ht="13.2">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -22947,7 +22989,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" spans="1:26">
+    <row r="804" spans="1:26" ht="13.2">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -22975,7 +23017,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" spans="1:26">
+    <row r="805" spans="1:26" ht="13.2">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -23003,7 +23045,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" spans="1:26">
+    <row r="806" spans="1:26" ht="13.2">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -23031,7 +23073,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" spans="1:26">
+    <row r="807" spans="1:26" ht="13.2">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -23059,7 +23101,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" spans="1:26">
+    <row r="808" spans="1:26" ht="13.2">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -23087,7 +23129,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" spans="1:26">
+    <row r="809" spans="1:26" ht="13.2">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -23115,7 +23157,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" spans="1:26">
+    <row r="810" spans="1:26" ht="13.2">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -23143,7 +23185,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" spans="1:26">
+    <row r="811" spans="1:26" ht="13.2">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -23171,7 +23213,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" spans="1:26">
+    <row r="812" spans="1:26" ht="13.2">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -23199,7 +23241,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" spans="1:26">
+    <row r="813" spans="1:26" ht="13.2">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -23227,7 +23269,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" spans="1:26">
+    <row r="814" spans="1:26" ht="13.2">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -23255,7 +23297,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" spans="1:26">
+    <row r="815" spans="1:26" ht="13.2">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -23283,7 +23325,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" spans="1:26">
+    <row r="816" spans="1:26" ht="13.2">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -23311,7 +23353,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" spans="1:26">
+    <row r="817" spans="1:26" ht="13.2">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -23339,7 +23381,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" spans="1:26">
+    <row r="818" spans="1:26" ht="13.2">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -23367,7 +23409,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" spans="1:26">
+    <row r="819" spans="1:26" ht="13.2">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -23395,7 +23437,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" spans="1:26">
+    <row r="820" spans="1:26" ht="13.2">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -23423,7 +23465,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" spans="1:26">
+    <row r="821" spans="1:26" ht="13.2">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -23451,7 +23493,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" spans="1:26">
+    <row r="822" spans="1:26" ht="13.2">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -23479,7 +23521,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" spans="1:26">
+    <row r="823" spans="1:26" ht="13.2">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -23507,7 +23549,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" spans="1:26">
+    <row r="824" spans="1:26" ht="13.2">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -23535,7 +23577,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" spans="1:26">
+    <row r="825" spans="1:26" ht="13.2">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -23563,7 +23605,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" spans="1:26">
+    <row r="826" spans="1:26" ht="13.2">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -23591,7 +23633,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" spans="1:26">
+    <row r="827" spans="1:26" ht="13.2">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -23619,7 +23661,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" spans="1:26">
+    <row r="828" spans="1:26" ht="13.2">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -23647,7 +23689,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" spans="1:26">
+    <row r="829" spans="1:26" ht="13.2">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -23675,7 +23717,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" spans="1:26">
+    <row r="830" spans="1:26" ht="13.2">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -23703,7 +23745,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" spans="1:26">
+    <row r="831" spans="1:26" ht="13.2">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -23731,7 +23773,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" spans="1:26">
+    <row r="832" spans="1:26" ht="13.2">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -23759,7 +23801,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" spans="1:26">
+    <row r="833" spans="1:26" ht="13.2">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -23787,7 +23829,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" spans="1:26">
+    <row r="834" spans="1:26" ht="13.2">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -23815,7 +23857,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" spans="1:26">
+    <row r="835" spans="1:26" ht="13.2">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -23843,7 +23885,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" spans="1:26">
+    <row r="836" spans="1:26" ht="13.2">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -23871,7 +23913,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" spans="1:26">
+    <row r="837" spans="1:26" ht="13.2">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -23899,7 +23941,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" spans="1:26">
+    <row r="838" spans="1:26" ht="13.2">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -23927,7 +23969,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" spans="1:26">
+    <row r="839" spans="1:26" ht="13.2">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -23955,7 +23997,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" spans="1:26">
+    <row r="840" spans="1:26" ht="13.2">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -23983,7 +24025,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" spans="1:26">
+    <row r="841" spans="1:26" ht="13.2">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -24011,7 +24053,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" spans="1:26">
+    <row r="842" spans="1:26" ht="13.2">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -24039,7 +24081,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" spans="1:26">
+    <row r="843" spans="1:26" ht="13.2">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -24067,7 +24109,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" spans="1:26">
+    <row r="844" spans="1:26" ht="13.2">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -24095,7 +24137,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" spans="1:26">
+    <row r="845" spans="1:26" ht="13.2">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -24123,7 +24165,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" spans="1:26">
+    <row r="846" spans="1:26" ht="13.2">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -24151,7 +24193,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" spans="1:26">
+    <row r="847" spans="1:26" ht="13.2">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -24179,7 +24221,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" spans="1:26">
+    <row r="848" spans="1:26" ht="13.2">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -24207,7 +24249,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" spans="1:26">
+    <row r="849" spans="1:26" ht="13.2">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -24235,7 +24277,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" spans="1:26">
+    <row r="850" spans="1:26" ht="13.2">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -24263,7 +24305,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" spans="1:26">
+    <row r="851" spans="1:26" ht="13.2">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -24291,7 +24333,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" spans="1:26">
+    <row r="852" spans="1:26" ht="13.2">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -24319,7 +24361,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" spans="1:26">
+    <row r="853" spans="1:26" ht="13.2">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -24347,7 +24389,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" spans="1:26">
+    <row r="854" spans="1:26" ht="13.2">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -24375,7 +24417,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" spans="1:26">
+    <row r="855" spans="1:26" ht="13.2">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -24403,7 +24445,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" spans="1:26">
+    <row r="856" spans="1:26" ht="13.2">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -24431,7 +24473,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" spans="1:26">
+    <row r="857" spans="1:26" ht="13.2">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -24459,7 +24501,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" spans="1:26">
+    <row r="858" spans="1:26" ht="13.2">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -24487,7 +24529,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" spans="1:26">
+    <row r="859" spans="1:26" ht="13.2">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -24515,7 +24557,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" spans="1:26">
+    <row r="860" spans="1:26" ht="13.2">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -24543,7 +24585,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" spans="1:26">
+    <row r="861" spans="1:26" ht="13.2">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -24571,7 +24613,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" spans="1:26">
+    <row r="862" spans="1:26" ht="13.2">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -24599,7 +24641,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" spans="1:26">
+    <row r="863" spans="1:26" ht="13.2">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -24627,7 +24669,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" spans="1:26">
+    <row r="864" spans="1:26" ht="13.2">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -24655,7 +24697,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" spans="1:26">
+    <row r="865" spans="1:26" ht="13.2">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -24683,7 +24725,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" spans="1:26">
+    <row r="866" spans="1:26" ht="13.2">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -24711,7 +24753,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" spans="1:26">
+    <row r="867" spans="1:26" ht="13.2">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -24739,7 +24781,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" spans="1:26">
+    <row r="868" spans="1:26" ht="13.2">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -24767,7 +24809,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" spans="1:26">
+    <row r="869" spans="1:26" ht="13.2">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -24795,7 +24837,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" spans="1:26">
+    <row r="870" spans="1:26" ht="13.2">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -24823,7 +24865,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" spans="1:26">
+    <row r="871" spans="1:26" ht="13.2">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -24851,7 +24893,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" spans="1:26">
+    <row r="872" spans="1:26" ht="13.2">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -24879,7 +24921,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" spans="1:26">
+    <row r="873" spans="1:26" ht="13.2">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -24907,7 +24949,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" spans="1:26">
+    <row r="874" spans="1:26" ht="13.2">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -24935,7 +24977,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" spans="1:26">
+    <row r="875" spans="1:26" ht="13.2">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -24963,7 +25005,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" spans="1:26">
+    <row r="876" spans="1:26" ht="13.2">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -24991,7 +25033,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" spans="1:26">
+    <row r="877" spans="1:26" ht="13.2">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -25019,7 +25061,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" spans="1:26">
+    <row r="878" spans="1:26" ht="13.2">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -25047,7 +25089,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" spans="1:26">
+    <row r="879" spans="1:26" ht="13.2">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -25075,7 +25117,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" spans="1:26">
+    <row r="880" spans="1:26" ht="13.2">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -25103,7 +25145,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" spans="1:26">
+    <row r="881" spans="1:26" ht="13.2">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -25131,7 +25173,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" spans="1:26">
+    <row r="882" spans="1:26" ht="13.2">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -25159,7 +25201,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" spans="1:26">
+    <row r="883" spans="1:26" ht="13.2">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -25187,7 +25229,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" spans="1:26">
+    <row r="884" spans="1:26" ht="13.2">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -25215,7 +25257,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" spans="1:26">
+    <row r="885" spans="1:26" ht="13.2">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -25243,7 +25285,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" spans="1:26">
+    <row r="886" spans="1:26" ht="13.2">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -25271,7 +25313,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" spans="1:26">
+    <row r="887" spans="1:26" ht="13.2">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -25299,7 +25341,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" spans="1:26">
+    <row r="888" spans="1:26" ht="13.2">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -25327,7 +25369,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" spans="1:26">
+    <row r="889" spans="1:26" ht="13.2">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -25355,7 +25397,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" spans="1:26">
+    <row r="890" spans="1:26" ht="13.2">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -25383,7 +25425,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" spans="1:26">
+    <row r="891" spans="1:26" ht="13.2">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -25411,7 +25453,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" spans="1:26">
+    <row r="892" spans="1:26" ht="13.2">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -25439,7 +25481,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" spans="1:26">
+    <row r="893" spans="1:26" ht="13.2">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -25467,7 +25509,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" spans="1:26">
+    <row r="894" spans="1:26" ht="13.2">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -25495,7 +25537,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" spans="1:26">
+    <row r="895" spans="1:26" ht="13.2">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -25523,7 +25565,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" spans="1:26">
+    <row r="896" spans="1:26" ht="13.2">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -25551,7 +25593,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" spans="1:26">
+    <row r="897" spans="1:26" ht="13.2">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -25579,7 +25621,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" spans="1:26">
+    <row r="898" spans="1:26" ht="13.2">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -25607,7 +25649,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" spans="1:26">
+    <row r="899" spans="1:26" ht="13.2">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -25635,7 +25677,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" spans="1:26">
+    <row r="900" spans="1:26" ht="13.2">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -25663,7 +25705,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" spans="1:26">
+    <row r="901" spans="1:26" ht="13.2">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -25691,7 +25733,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" spans="1:26">
+    <row r="902" spans="1:26" ht="13.2">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -25719,7 +25761,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" spans="1:26">
+    <row r="903" spans="1:26" ht="13.2">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -25747,7 +25789,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" spans="1:26">
+    <row r="904" spans="1:26" ht="13.2">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -25775,7 +25817,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" spans="1:26">
+    <row r="905" spans="1:26" ht="13.2">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -25803,7 +25845,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" spans="1:26">
+    <row r="906" spans="1:26" ht="13.2">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -25831,7 +25873,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" spans="1:26">
+    <row r="907" spans="1:26" ht="13.2">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -25859,7 +25901,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" spans="1:26">
+    <row r="908" spans="1:26" ht="13.2">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -25887,7 +25929,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" spans="1:26">
+    <row r="909" spans="1:26" ht="13.2">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -25915,7 +25957,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" spans="1:26">
+    <row r="910" spans="1:26" ht="13.2">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -25943,7 +25985,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" spans="1:26">
+    <row r="911" spans="1:26" ht="13.2">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -25971,7 +26013,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" spans="1:26">
+    <row r="912" spans="1:26" ht="13.2">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -25999,7 +26041,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" spans="1:26">
+    <row r="913" spans="1:26" ht="13.2">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -26027,7 +26069,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" spans="1:26">
+    <row r="914" spans="1:26" ht="13.2">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -26055,7 +26097,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" spans="1:26">
+    <row r="915" spans="1:26" ht="13.2">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -26083,7 +26125,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" spans="1:26">
+    <row r="916" spans="1:26" ht="13.2">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -26111,7 +26153,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" spans="1:26">
+    <row r="917" spans="1:26" ht="13.2">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -26139,7 +26181,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" spans="1:26">
+    <row r="918" spans="1:26" ht="13.2">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -26167,7 +26209,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" spans="1:26">
+    <row r="919" spans="1:26" ht="13.2">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -26195,7 +26237,7 @@
       <c r="Y919" s="2"/>
       <c r="Z919" s="2"/>
     </row>
-    <row r="920" spans="1:26">
+    <row r="920" spans="1:26" ht="13.2">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -26223,7 +26265,7 @@
       <c r="Y920" s="2"/>
       <c r="Z920" s="2"/>
     </row>
-    <row r="921" spans="1:26">
+    <row r="921" spans="1:26" ht="13.2">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -26251,7 +26293,7 @@
       <c r="Y921" s="2"/>
       <c r="Z921" s="2"/>
     </row>
-    <row r="922" spans="1:26">
+    <row r="922" spans="1:26" ht="13.2">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -26279,7 +26321,7 @@
       <c r="Y922" s="2"/>
       <c r="Z922" s="2"/>
     </row>
-    <row r="923" spans="1:26">
+    <row r="923" spans="1:26" ht="13.2">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -26307,7 +26349,7 @@
       <c r="Y923" s="2"/>
       <c r="Z923" s="2"/>
     </row>
-    <row r="924" spans="1:26">
+    <row r="924" spans="1:26" ht="13.2">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -26335,7 +26377,7 @@
       <c r="Y924" s="2"/>
       <c r="Z924" s="2"/>
     </row>
-    <row r="925" spans="1:26">
+    <row r="925" spans="1:26" ht="13.2">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -26363,7 +26405,7 @@
       <c r="Y925" s="2"/>
       <c r="Z925" s="2"/>
     </row>
-    <row r="926" spans="1:26">
+    <row r="926" spans="1:26" ht="13.2">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -26391,7 +26433,7 @@
       <c r="Y926" s="2"/>
       <c r="Z926" s="2"/>
     </row>
-    <row r="927" spans="1:26">
+    <row r="927" spans="1:26" ht="13.2">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -26419,7 +26461,7 @@
       <c r="Y927" s="2"/>
       <c r="Z927" s="2"/>
     </row>
-    <row r="928" spans="1:26">
+    <row r="928" spans="1:26" ht="13.2">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -26447,7 +26489,7 @@
       <c r="Y928" s="2"/>
       <c r="Z928" s="2"/>
     </row>
-    <row r="929" spans="1:26">
+    <row r="929" spans="1:26" ht="13.2">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -26475,7 +26517,7 @@
       <c r="Y929" s="2"/>
       <c r="Z929" s="2"/>
     </row>
-    <row r="930" spans="1:26">
+    <row r="930" spans="1:26" ht="13.2">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -26503,7 +26545,7 @@
       <c r="Y930" s="2"/>
       <c r="Z930" s="2"/>
     </row>
-    <row r="931" spans="1:26">
+    <row r="931" spans="1:26" ht="13.2">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -26531,7 +26573,7 @@
       <c r="Y931" s="2"/>
       <c r="Z931" s="2"/>
     </row>
-    <row r="932" spans="1:26">
+    <row r="932" spans="1:26" ht="13.2">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -26559,7 +26601,7 @@
       <c r="Y932" s="2"/>
       <c r="Z932" s="2"/>
     </row>
-    <row r="933" spans="1:26">
+    <row r="933" spans="1:26" ht="13.2">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -26587,7 +26629,7 @@
       <c r="Y933" s="2"/>
       <c r="Z933" s="2"/>
     </row>
-    <row r="934" spans="1:26">
+    <row r="934" spans="1:26" ht="13.2">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -26615,7 +26657,7 @@
       <c r="Y934" s="2"/>
       <c r="Z934" s="2"/>
     </row>
-    <row r="935" spans="1:26">
+    <row r="935" spans="1:26" ht="13.2">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -26643,7 +26685,7 @@
       <c r="Y935" s="2"/>
       <c r="Z935" s="2"/>
     </row>
-    <row r="936" spans="1:26">
+    <row r="936" spans="1:26" ht="13.2">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -26671,7 +26713,7 @@
       <c r="Y936" s="2"/>
       <c r="Z936" s="2"/>
     </row>
-    <row r="937" spans="1:26">
+    <row r="937" spans="1:26" ht="13.2">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -26699,7 +26741,7 @@
       <c r="Y937" s="2"/>
       <c r="Z937" s="2"/>
     </row>
-    <row r="938" spans="1:26">
+    <row r="938" spans="1:26" ht="13.2">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -26727,7 +26769,7 @@
       <c r="Y938" s="2"/>
       <c r="Z938" s="2"/>
     </row>
-    <row r="939" spans="1:26">
+    <row r="939" spans="1:26" ht="13.2">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -26755,7 +26797,7 @@
       <c r="Y939" s="2"/>
       <c r="Z939" s="2"/>
     </row>
-    <row r="940" spans="1:26">
+    <row r="940" spans="1:26" ht="13.2">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -26783,7 +26825,7 @@
       <c r="Y940" s="2"/>
       <c r="Z940" s="2"/>
     </row>
-    <row r="941" spans="1:26">
+    <row r="941" spans="1:26" ht="13.2">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -26811,7 +26853,7 @@
       <c r="Y941" s="2"/>
       <c r="Z941" s="2"/>
     </row>
-    <row r="942" spans="1:26">
+    <row r="942" spans="1:26" ht="13.2">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -26839,7 +26881,7 @@
       <c r="Y942" s="2"/>
       <c r="Z942" s="2"/>
     </row>
-    <row r="943" spans="1:26">
+    <row r="943" spans="1:26" ht="13.2">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -26867,7 +26909,7 @@
       <c r="Y943" s="2"/>
       <c r="Z943" s="2"/>
     </row>
-    <row r="944" spans="1:26">
+    <row r="944" spans="1:26" ht="13.2">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -26895,7 +26937,7 @@
       <c r="Y944" s="2"/>
       <c r="Z944" s="2"/>
     </row>
-    <row r="945" spans="1:26">
+    <row r="945" spans="1:26" ht="13.2">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -26923,7 +26965,7 @@
       <c r="Y945" s="2"/>
       <c r="Z945" s="2"/>
     </row>
-    <row r="946" spans="1:26">
+    <row r="946" spans="1:26" ht="13.2">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -26951,7 +26993,7 @@
       <c r="Y946" s="2"/>
       <c r="Z946" s="2"/>
     </row>
-    <row r="947" spans="1:26">
+    <row r="947" spans="1:26" ht="13.2">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -26979,7 +27021,7 @@
       <c r="Y947" s="2"/>
       <c r="Z947" s="2"/>
     </row>
-    <row r="948" spans="1:26">
+    <row r="948" spans="1:26" ht="13.2">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -27007,7 +27049,7 @@
       <c r="Y948" s="2"/>
       <c r="Z948" s="2"/>
     </row>
-    <row r="949" spans="1:26">
+    <row r="949" spans="1:26" ht="13.2">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -27035,7 +27077,7 @@
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
     </row>
-    <row r="950" spans="1:26">
+    <row r="950" spans="1:26" ht="13.2">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -27063,7 +27105,7 @@
       <c r="Y950" s="2"/>
       <c r="Z950" s="2"/>
     </row>
-    <row r="951" spans="1:26">
+    <row r="951" spans="1:26" ht="13.2">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -27091,7 +27133,7 @@
       <c r="Y951" s="2"/>
       <c r="Z951" s="2"/>
     </row>
-    <row r="952" spans="1:26">
+    <row r="952" spans="1:26" ht="13.2">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -27119,7 +27161,7 @@
       <c r="Y952" s="2"/>
       <c r="Z952" s="2"/>
     </row>
-    <row r="953" spans="1:26">
+    <row r="953" spans="1:26" ht="13.2">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -27147,7 +27189,7 @@
       <c r="Y953" s="2"/>
       <c r="Z953" s="2"/>
     </row>
-    <row r="954" spans="1:26">
+    <row r="954" spans="1:26" ht="13.2">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -27175,7 +27217,7 @@
       <c r="Y954" s="2"/>
       <c r="Z954" s="2"/>
     </row>
-    <row r="955" spans="1:26">
+    <row r="955" spans="1:26" ht="13.2">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -27203,7 +27245,7 @@
       <c r="Y955" s="2"/>
       <c r="Z955" s="2"/>
     </row>
-    <row r="956" spans="1:26">
+    <row r="956" spans="1:26" ht="13.2">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -27231,7 +27273,7 @@
       <c r="Y956" s="2"/>
       <c r="Z956" s="2"/>
     </row>
-    <row r="957" spans="1:26">
+    <row r="957" spans="1:26" ht="13.2">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -27259,7 +27301,7 @@
       <c r="Y957" s="2"/>
       <c r="Z957" s="2"/>
     </row>
-    <row r="958" spans="1:26">
+    <row r="958" spans="1:26" ht="13.2">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -27287,7 +27329,7 @@
       <c r="Y958" s="2"/>
       <c r="Z958" s="2"/>
     </row>
-    <row r="959" spans="1:26">
+    <row r="959" spans="1:26" ht="13.2">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -27315,7 +27357,7 @@
       <c r="Y959" s="2"/>
       <c r="Z959" s="2"/>
     </row>
-    <row r="960" spans="1:26">
+    <row r="960" spans="1:26" ht="13.2">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -27343,7 +27385,7 @@
       <c r="Y960" s="2"/>
       <c r="Z960" s="2"/>
     </row>
-    <row r="961" spans="1:26">
+    <row r="961" spans="1:26" ht="13.2">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -27371,7 +27413,7 @@
       <c r="Y961" s="2"/>
       <c r="Z961" s="2"/>
     </row>
-    <row r="962" spans="1:26">
+    <row r="962" spans="1:26" ht="13.2">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -27399,7 +27441,7 @@
       <c r="Y962" s="2"/>
       <c r="Z962" s="2"/>
     </row>
-    <row r="963" spans="1:26">
+    <row r="963" spans="1:26" ht="13.2">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -27427,7 +27469,7 @@
       <c r="Y963" s="2"/>
       <c r="Z963" s="2"/>
     </row>
-    <row r="964" spans="1:26">
+    <row r="964" spans="1:26" ht="13.2">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -27455,7 +27497,7 @@
       <c r="Y964" s="2"/>
       <c r="Z964" s="2"/>
     </row>
-    <row r="965" spans="1:26">
+    <row r="965" spans="1:26" ht="13.2">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -27483,7 +27525,7 @@
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
     </row>
-    <row r="966" spans="1:26">
+    <row r="966" spans="1:26" ht="13.2">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -27511,7 +27553,7 @@
       <c r="Y966" s="2"/>
       <c r="Z966" s="2"/>
     </row>
-    <row r="967" spans="1:26">
+    <row r="967" spans="1:26" ht="13.2">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -27539,7 +27581,7 @@
       <c r="Y967" s="2"/>
       <c r="Z967" s="2"/>
     </row>
-    <row r="968" spans="1:26">
+    <row r="968" spans="1:26" ht="13.2">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -27567,7 +27609,7 @@
       <c r="Y968" s="2"/>
       <c r="Z968" s="2"/>
     </row>
-    <row r="969" spans="1:26">
+    <row r="969" spans="1:26" ht="13.2">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -27595,7 +27637,7 @@
       <c r="Y969" s="2"/>
       <c r="Z969" s="2"/>
     </row>
-    <row r="970" spans="1:26">
+    <row r="970" spans="1:26" ht="13.2">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -27623,7 +27665,7 @@
       <c r="Y970" s="2"/>
       <c r="Z970" s="2"/>
     </row>
-    <row r="971" spans="1:26">
+    <row r="971" spans="1:26" ht="13.2">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -27651,7 +27693,7 @@
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
     </row>
-    <row r="972" spans="1:26">
+    <row r="972" spans="1:26" ht="13.2">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -27679,7 +27721,7 @@
       <c r="Y972" s="2"/>
       <c r="Z972" s="2"/>
     </row>
-    <row r="973" spans="1:26">
+    <row r="973" spans="1:26" ht="13.2">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -27707,7 +27749,7 @@
       <c r="Y973" s="2"/>
       <c r="Z973" s="2"/>
     </row>
-    <row r="974" spans="1:26">
+    <row r="974" spans="1:26" ht="13.2">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -27735,7 +27777,7 @@
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
     </row>
-    <row r="975" spans="1:26">
+    <row r="975" spans="1:26" ht="13.2">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -27763,7 +27805,7 @@
       <c r="Y975" s="2"/>
       <c r="Z975" s="2"/>
     </row>
-    <row r="976" spans="1:26">
+    <row r="976" spans="1:26" ht="13.2">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -27791,7 +27833,7 @@
       <c r="Y976" s="2"/>
       <c r="Z976" s="2"/>
     </row>
-    <row r="977" spans="1:26">
+    <row r="977" spans="1:26" ht="13.2">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -27819,7 +27861,7 @@
       <c r="Y977" s="2"/>
       <c r="Z977" s="2"/>
     </row>
-    <row r="978" spans="1:26">
+    <row r="978" spans="1:26" ht="13.2">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -27847,7 +27889,7 @@
       <c r="Y978" s="2"/>
       <c r="Z978" s="2"/>
     </row>
-    <row r="979" spans="1:26">
+    <row r="979" spans="1:26" ht="13.2">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -27875,7 +27917,7 @@
       <c r="Y979" s="2"/>
       <c r="Z979" s="2"/>
     </row>
-    <row r="980" spans="1:26">
+    <row r="980" spans="1:26" ht="13.2">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -27903,7 +27945,7 @@
       <c r="Y980" s="2"/>
       <c r="Z980" s="2"/>
     </row>
-    <row r="981" spans="1:26">
+    <row r="981" spans="1:26" ht="13.2">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -27931,7 +27973,7 @@
       <c r="Y981" s="2"/>
       <c r="Z981" s="2"/>
     </row>
-    <row r="982" spans="1:26">
+    <row r="982" spans="1:26" ht="13.2">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -27959,7 +28001,7 @@
       <c r="Y982" s="2"/>
       <c r="Z982" s="2"/>
     </row>
-    <row r="983" spans="1:26">
+    <row r="983" spans="1:26" ht="13.2">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -27987,7 +28029,7 @@
       <c r="Y983" s="2"/>
       <c r="Z983" s="2"/>
     </row>
-    <row r="984" spans="1:26">
+    <row r="984" spans="1:26" ht="13.2">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -28015,7 +28057,7 @@
       <c r="Y984" s="2"/>
       <c r="Z984" s="2"/>
     </row>
-    <row r="985" spans="1:26">
+    <row r="985" spans="1:26" ht="13.2">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -28043,7 +28085,7 @@
       <c r="Y985" s="2"/>
       <c r="Z985" s="2"/>
     </row>
-    <row r="986" spans="1:26">
+    <row r="986" spans="1:26" ht="13.2">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -28071,7 +28113,7 @@
       <c r="Y986" s="2"/>
       <c r="Z986" s="2"/>
     </row>
-    <row r="987" spans="1:26">
+    <row r="987" spans="1:26" ht="13.2">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -28099,7 +28141,7 @@
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
     </row>
-    <row r="988" spans="1:26">
+    <row r="988" spans="1:26" ht="13.2">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -28127,7 +28169,7 @@
       <c r="Y988" s="2"/>
       <c r="Z988" s="2"/>
     </row>
-    <row r="989" spans="1:26">
+    <row r="989" spans="1:26" ht="13.2">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -28155,7 +28197,7 @@
       <c r="Y989" s="2"/>
       <c r="Z989" s="2"/>
     </row>
-    <row r="990" spans="1:26">
+    <row r="990" spans="1:26" ht="13.2">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -28183,7 +28225,7 @@
       <c r="Y990" s="2"/>
       <c r="Z990" s="2"/>
     </row>
-    <row r="991" spans="1:26">
+    <row r="991" spans="1:26" ht="13.2">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -28211,7 +28253,7 @@
       <c r="Y991" s="2"/>
       <c r="Z991" s="2"/>
     </row>
-    <row r="992" spans="1:26">
+    <row r="992" spans="1:26" ht="13.2">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -28239,7 +28281,7 @@
       <c r="Y992" s="2"/>
       <c r="Z992" s="2"/>
     </row>
-    <row r="993" spans="1:26">
+    <row r="993" spans="1:26" ht="13.2">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -28267,7 +28309,7 @@
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
     </row>
-    <row r="994" spans="1:26">
+    <row r="994" spans="1:26" ht="13.2">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -28295,7 +28337,7 @@
       <c r="Y994" s="2"/>
       <c r="Z994" s="2"/>
     </row>
-    <row r="995" spans="1:26">
+    <row r="995" spans="1:26" ht="13.2">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -28323,7 +28365,7 @@
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
     </row>
-    <row r="996" spans="1:26">
+    <row r="996" spans="1:26" ht="13.2">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -28351,7 +28393,7 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
-    <row r="997" spans="1:26">
+    <row r="997" spans="1:26" ht="13.2">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -28379,7 +28421,7 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998" spans="1:26">
+    <row r="998" spans="1:26" ht="13.2">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -28407,7 +28449,7 @@
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
     </row>
-    <row r="999" spans="1:26">
+    <row r="999" spans="1:26" ht="13.2">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -28435,7 +28477,7 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000" spans="1:26">
+    <row r="1000" spans="1:26" ht="13.2">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -28469,7 +28511,7 @@
     <mergeCell ref="E2:I2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="F4">
+    <dataValidation type="list" allowBlank="1" sqref="F4:F7">
       <formula1>"On,Done,Rejected"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SWE/Software Specification/SRS/SRS review.xlsx
+++ b/SWE/Software Specification/SRS/SRS review.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Sovy - Digital Calculator PO1_DGC</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>Requirements 3,4,5,6,11,12</t>
+  </si>
+  <si>
+    <t>Specify operation signal and its modes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Done</t>
+  </si>
+  <si>
+    <t>Add table of mapping between signals and modes</t>
+  </si>
+  <si>
+    <t>Modify the requirements based on modes of signals</t>
+  </si>
+  <si>
+    <t>All Requirements</t>
   </si>
 </sst>
 </file>
@@ -449,13 +464,13 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="37.88671875" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
     <col min="9" max="9" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -705,10 +720,18 @@
     <row r="8" spans="1:26" ht="13.2">
       <c r="A8" s="1"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="16">
+        <v>44300</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="10"/>
@@ -733,10 +756,18 @@
     <row r="9" spans="1:26" ht="13.2">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="16">
+        <v>44301</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="10"/>

--- a/SWE/Software Specification/SRS/SRS review.xlsx
+++ b/SWE/Software Specification/SRS/SRS review.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Sovy\Sovy---Digital-Calculator-PO1_DGC\SWE\Software Specification\SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI_intake_41\5.Courses\Software_Engineering\Software_eng_team_repo\Sovy---Digital-Calculator-PO1_DGC\SWE\Software Specification\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Sovy - Digital Calculator PO1_DGC</t>
   </si>
@@ -104,15 +104,34 @@
   <si>
     <t>All Requirements</t>
   </si>
+  <si>
+    <t>Issue_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4/29/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req_1ST123_CRS_overall_012-V1.1
+Req_1ST123_CRS_overall_013-V1.3
+Req_1ST123_CRS_overall_014-V1.0 </t>
+  </si>
+  <si>
+    <t>These requireemtns are found in CRS and are not covered
+in SRS.</t>
+  </si>
+  <si>
+    <t>Req_1ST123_ HSI_overall_006-V1.0 is not found in HSIdocument.
+Req_1ST123_HSI_overall_006-V1.1 is found in HSIinstead.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m&quot;/&quot;d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -160,6 +179,17 @@
       <color rgb="FFFFFFFF"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -205,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -243,6 +273,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,16 +496,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="4" max="4" width="45.21875" customWidth="1"/>
+    <col min="4" max="4" width="76.77734375" customWidth="1"/>
     <col min="9" max="9" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -577,7 +612,7 @@
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -817,12 +852,18 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="13.2">
+    <row r="11" spans="1:26" ht="37.799999999999997" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -845,12 +886,18 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="13.2">
+    <row r="12" spans="1:26" ht="39.6">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -912,7 +959,6 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -940,6 +986,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -28508,34 +28555,6 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000" spans="1:26" ht="13.2">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:I1"/>
@@ -28547,5 +28566,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>